--- a/nodes_source_analyses/energy/energy_chp_ultra_supercritical_cofiring_coal.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_chp_ultra_supercritical_cofiring_coal.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="460" yWindow="0" windowWidth="25600" windowHeight="15960" tabRatio="762"/>
+    <workbookView xWindow="460" yWindow="460" windowWidth="25600" windowHeight="15960" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -410,9 +418,6 @@
   </si>
   <si>
     <t>ReTech</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t xml:space="preserve">Technical </t>
@@ -584,6 +589,10 @@
   <si>
     <t>energy_chp_ultra_supercritical_cofiring_coal.central_producer.ad</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -594,7 +603,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -712,11 +721,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <u/>
@@ -1351,7 +1355,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1363,54 +1367,54 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1426,21 +1430,21 @@
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1537,45 +1541,45 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1817,80 +1821,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>431800</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3746500</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attridures on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2048,7 +1987,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2485,45 +2424,45 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>102</v>
@@ -2532,7 +2471,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>21</v>
@@ -2541,29 +2480,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="71" t="s">
         <v>104</v>
       </c>
       <c r="C9" s="72"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="73"/>
       <c r="C10" s="74"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="73" t="s">
         <v>105</v>
@@ -2572,33 +2511,33 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="73"/>
       <c r="C12" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="73"/>
       <c r="C13" s="76" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="73"/>
       <c r="C14" s="74" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="73"/>
       <c r="C15" s="74"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="73" t="s">
         <v>110</v>
@@ -2607,49 +2546,49 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="73"/>
       <c r="C17" s="78" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="73"/>
       <c r="C18" s="79" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="73"/>
       <c r="C19" s="80" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="81"/>
       <c r="C20" s="82" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="81"/>
       <c r="C21" s="83" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="81"/>
       <c r="C22" s="84" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="81"/>
       <c r="C23" s="85" t="s">
         <v>118</v>
@@ -2658,49 +2597,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="E20" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="46.875" style="35" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
     <col min="7" max="7" width="45" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="47.75" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="47.7109375" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="146" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="C2" s="147"/>
       <c r="D2" s="147"/>
@@ -2708,7 +2642,7 @@
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="149"/>
       <c r="C3" s="150"/>
       <c r="D3" s="150"/>
@@ -2716,7 +2650,7 @@
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="149"/>
       <c r="C4" s="150"/>
       <c r="D4" s="150"/>
@@ -2724,7 +2658,7 @@
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="152"/>
       <c r="C5" s="153"/>
       <c r="D5" s="153"/>
@@ -2732,10 +2666,10 @@
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="33"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="36"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -2746,7 +2680,7 @@
       <c r="I7" s="16"/>
       <c r="J7" s="37"/>
     </row>
-    <row r="8" spans="2:11" s="42" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="42" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="89"/>
       <c r="C8" s="15" t="s">
         <v>34</v>
@@ -2767,7 +2701,7 @@
       </c>
       <c r="J8" s="91"/>
     </row>
-    <row r="9" spans="2:11" s="42" customFormat="1" ht="16" customHeight="1">
+    <row r="9" spans="2:11" s="42" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20"/>
       <c r="C9" s="14"/>
       <c r="D9" s="28"/>
@@ -2778,7 +2712,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="43"/>
     </row>
-    <row r="10" spans="2:11" s="42" customFormat="1" ht="17" customHeight="1" thickBot="1">
+    <row r="10" spans="2:11" s="42" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
       <c r="C10" s="14" t="s">
         <v>121</v>
@@ -2791,7 +2725,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="43"/>
     </row>
-    <row r="11" spans="2:11" s="42" customFormat="1" ht="16" customHeight="1" thickBot="1">
+    <row r="11" spans="2:11" s="42" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="20"/>
       <c r="C11" s="34" t="s">
         <v>35</v>
@@ -2810,7 +2744,7 @@
       </c>
       <c r="J11" s="43"/>
     </row>
-    <row r="12" spans="2:11" s="42" customFormat="1" ht="17" customHeight="1" thickBot="1">
+    <row r="12" spans="2:11" s="42" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20"/>
       <c r="C12" s="34" t="s">
         <v>76</v>
@@ -2829,7 +2763,7 @@
       </c>
       <c r="J12" s="43"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="38"/>
       <c r="C13" s="34" t="s">
         <v>37</v>
@@ -2849,7 +2783,7 @@
       <c r="J13" s="92"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="38"/>
       <c r="C14" s="34" t="s">
         <v>38</v>
@@ -2869,7 +2803,7 @@
       <c r="J14" s="92"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
       <c r="C15" s="34" t="s">
         <v>40</v>
@@ -2889,7 +2823,7 @@
       <c r="J15" s="92"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="38"/>
       <c r="C16" s="34" t="s">
         <v>11</v>
@@ -2909,7 +2843,7 @@
       <c r="J16" s="92"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="38"/>
       <c r="C17" s="34" t="s">
         <v>43</v>
@@ -2929,7 +2863,7 @@
       <c r="J17" s="92"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="38"/>
       <c r="C18" s="34" t="s">
         <v>44</v>
@@ -2949,7 +2883,7 @@
       <c r="J18" s="92"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="38"/>
       <c r="C19" s="34" t="s">
         <v>45</v>
@@ -2971,7 +2905,7 @@
       </c>
       <c r="J19" s="92"/>
     </row>
-    <row r="20" spans="2:11" ht="16" thickBot="1">
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="38"/>
       <c r="C20" s="34" t="s">
         <v>46</v>
@@ -2992,7 +2926,7 @@
       </c>
       <c r="J20" s="92"/>
     </row>
-    <row r="21" spans="2:11" ht="16" thickBot="1">
+    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="38"/>
       <c r="C21" s="34" t="s">
         <v>47</v>
@@ -3013,7 +2947,7 @@
       </c>
       <c r="J21" s="92"/>
     </row>
-    <row r="22" spans="2:11" ht="16" thickBot="1">
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="38"/>
       <c r="C22" s="34" t="s">
         <v>60</v>
@@ -3034,7 +2968,7 @@
       </c>
       <c r="J22" s="92"/>
     </row>
-    <row r="23" spans="2:11" ht="16" thickBot="1">
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="38"/>
       <c r="C23" s="34" t="s">
         <v>48</v>
@@ -3055,7 +2989,7 @@
       </c>
       <c r="J23" s="92"/>
     </row>
-    <row r="24" spans="2:11" ht="16" thickBot="1">
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="38"/>
       <c r="C24" s="34" t="s">
         <v>49</v>
@@ -3076,7 +3010,7 @@
       </c>
       <c r="J24" s="92"/>
     </row>
-    <row r="25" spans="2:11" ht="16" thickBot="1">
+    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="38"/>
       <c r="C25" s="34" t="s">
         <v>50</v>
@@ -3097,7 +3031,7 @@
       </c>
       <c r="J25" s="92"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="38"/>
       <c r="C26" s="33"/>
       <c r="D26" s="87"/>
@@ -3108,7 +3042,7 @@
       <c r="I26" s="33"/>
       <c r="J26" s="92"/>
     </row>
-    <row r="27" spans="2:11" ht="16" thickBot="1">
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="38"/>
       <c r="C27" s="14" t="s">
         <v>120</v>
@@ -3121,7 +3055,7 @@
       <c r="I27" s="33"/>
       <c r="J27" s="92"/>
     </row>
-    <row r="28" spans="2:11" ht="16" thickBot="1">
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="38"/>
       <c r="C28" s="34" t="s">
         <v>51</v>
@@ -3139,11 +3073,11 @@
       </c>
       <c r="H28" s="34"/>
       <c r="I28" s="140" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J28" s="92"/>
     </row>
-    <row r="29" spans="2:11" ht="16" thickBot="1">
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="38"/>
       <c r="C29" s="34" t="s">
         <v>52</v>
@@ -3164,7 +3098,7 @@
       </c>
       <c r="J29" s="92"/>
     </row>
-    <row r="30" spans="2:11" ht="16" thickBot="1">
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="38"/>
       <c r="C30" s="34" t="s">
         <v>13</v>
@@ -3185,7 +3119,7 @@
       </c>
       <c r="J30" s="92"/>
     </row>
-    <row r="31" spans="2:11" ht="16" thickBot="1">
+    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="38"/>
       <c r="C31" s="34" t="s">
         <v>53</v>
@@ -3206,7 +3140,7 @@
       </c>
       <c r="J31" s="92"/>
     </row>
-    <row r="32" spans="2:11" ht="16" thickBot="1">
+    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="38"/>
       <c r="C32" s="34" t="s">
         <v>54</v>
@@ -3228,7 +3162,7 @@
       </c>
       <c r="J32" s="92"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="38"/>
       <c r="C33" s="34" t="s">
         <v>55</v>
@@ -3250,7 +3184,7 @@
       </c>
       <c r="J33" s="92"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="38"/>
       <c r="C34" s="34" t="s">
         <v>56</v>
@@ -3271,7 +3205,7 @@
       </c>
       <c r="J34" s="92"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="38"/>
       <c r="C35" s="34" t="s">
         <v>59</v>
@@ -3292,7 +3226,7 @@
       </c>
       <c r="J35" s="92"/>
     </row>
-    <row r="36" spans="2:10" ht="16" thickBot="1">
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="38"/>
       <c r="C36" s="34" t="s">
         <v>42</v>
@@ -3311,7 +3245,7 @@
       </c>
       <c r="J36" s="92"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="38"/>
       <c r="C37" s="33"/>
       <c r="D37" s="87"/>
@@ -3322,7 +3256,7 @@
       <c r="I37" s="33"/>
       <c r="J37" s="92"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="38"/>
       <c r="C38" s="14" t="s">
         <v>8</v>
@@ -3335,7 +3269,7 @@
       <c r="I38" s="33"/>
       <c r="J38" s="92"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="38"/>
       <c r="C39" s="34" t="s">
         <v>41</v>
@@ -3357,7 +3291,7 @@
       </c>
       <c r="J39" s="92"/>
     </row>
-    <row r="40" spans="2:10" ht="16" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="38"/>
       <c r="C40" s="34" t="s">
         <v>57</v>
@@ -3379,7 +3313,7 @@
       </c>
       <c r="J40" s="92"/>
     </row>
-    <row r="41" spans="2:10" ht="16" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="38"/>
       <c r="C41" s="34" t="s">
         <v>58</v>
@@ -3397,11 +3331,11 @@
       </c>
       <c r="H41" s="34"/>
       <c r="I41" s="69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J41" s="92"/>
     </row>
-    <row r="42" spans="2:10" ht="16" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="38"/>
       <c r="C42" s="34" t="s">
         <v>39</v>
@@ -3420,7 +3354,7 @@
       </c>
       <c r="J42" s="92"/>
     </row>
-    <row r="43" spans="2:10" ht="16" thickBot="1">
+    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="38"/>
       <c r="C43" s="46" t="s">
         <v>78</v>
@@ -3437,7 +3371,7 @@
       </c>
       <c r="J43" s="92"/>
     </row>
-    <row r="44" spans="2:10" ht="16" thickBot="1">
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="38"/>
       <c r="C44" s="46" t="s">
         <v>79</v>
@@ -3454,7 +3388,7 @@
       </c>
       <c r="J44" s="92"/>
     </row>
-    <row r="45" spans="2:10" ht="16" thickBot="1">
+    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="38"/>
       <c r="C45" s="46" t="s">
         <v>81</v>
@@ -3471,7 +3405,7 @@
       </c>
       <c r="J45" s="92"/>
     </row>
-    <row r="46" spans="2:10" ht="16" thickBot="1">
+    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="38"/>
       <c r="C46" s="46" t="s">
         <v>82</v>
@@ -3488,7 +3422,7 @@
       </c>
       <c r="J46" s="92"/>
     </row>
-    <row r="47" spans="2:10" ht="16" thickBot="1">
+    <row r="47" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="38"/>
       <c r="C47" s="46" t="s">
         <v>80</v>
@@ -3505,7 +3439,7 @@
       </c>
       <c r="J47" s="92"/>
     </row>
-    <row r="48" spans="2:10" ht="16" thickBot="1">
+    <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="38"/>
       <c r="C48" s="46" t="s">
         <v>83</v>
@@ -3522,7 +3456,7 @@
       </c>
       <c r="J48" s="92"/>
     </row>
-    <row r="49" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="49" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="39"/>
       <c r="C49" s="40"/>
       <c r="D49" s="40"/>
@@ -3539,43 +3473,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>431800</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3746500</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3590,31 +3487,31 @@
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="47" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="47" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="47" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="47" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="47" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="47" customWidth="1"/>
-    <col min="7" max="7" width="2.875" style="47" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="47" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="47" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="68" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="47" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="47" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="47" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="47" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="47" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" style="47" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="47" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="47" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="68" customWidth="1"/>
     <col min="11" max="11" width="2" style="68" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="68" customWidth="1"/>
-    <col min="13" max="13" width="2.125" style="68" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="68" customWidth="1"/>
-    <col min="15" max="15" width="2.25" style="47" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="68" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" style="68" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="68" customWidth="1"/>
+    <col min="15" max="15" width="2.28515625" style="47" customWidth="1"/>
     <col min="16" max="16" width="10" style="68" customWidth="1"/>
-    <col min="17" max="17" width="2.5" style="68" customWidth="1"/>
-    <col min="18" max="18" width="81.75" style="47" customWidth="1"/>
-    <col min="19" max="16384" width="10.625" style="47"/>
+    <col min="17" max="17" width="2.42578125" style="68" customWidth="1"/>
+    <col min="18" max="18" width="81.7109375" style="47" customWidth="1"/>
+    <col min="19" max="16384" width="10.7109375" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="16" thickBot="1"/>
-    <row r="2" spans="2:18">
+    <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="102"/>
       <c r="C2" s="103"/>
       <c r="D2" s="103"/>
@@ -3633,10 +3530,10 @@
       <c r="Q2" s="104"/>
       <c r="R2" s="103"/>
     </row>
-    <row r="3" spans="2:18" s="21" customFormat="1">
+    <row r="3" spans="2:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="98" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3657,7 +3554,7 @@
       </c>
       <c r="M3" s="100"/>
       <c r="N3" s="100" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O3" s="98"/>
       <c r="P3" s="100" t="s">
@@ -3665,10 +3562,10 @@
       </c>
       <c r="Q3" s="100"/>
       <c r="R3" s="98" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="105"/>
       <c r="C4" s="106"/>
       <c r="D4" s="106"/>
@@ -3687,10 +3584,10 @@
       <c r="Q4" s="99"/>
       <c r="R4" s="9"/>
     </row>
-    <row r="5" spans="2:18" ht="16" thickBot="1">
+    <row r="5" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="105"/>
       <c r="C5" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3708,7 +3605,7 @@
       <c r="Q5" s="10"/>
       <c r="R5" s="109"/>
     </row>
-    <row r="6" spans="2:18" ht="16" thickBot="1">
+    <row r="6" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="105"/>
       <c r="C6" s="110" t="s">
         <v>31</v>
@@ -3734,7 +3631,7 @@
       <c r="Q6" s="116"/>
       <c r="R6" s="109"/>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="105"/>
       <c r="C7" s="117"/>
       <c r="D7" s="117"/>
@@ -3753,7 +3650,7 @@
       <c r="Q7" s="116"/>
       <c r="R7" s="109"/>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="105"/>
       <c r="C8" s="117"/>
       <c r="D8" s="117"/>
@@ -3772,7 +3669,7 @@
       <c r="Q8" s="116"/>
       <c r="R8" s="109"/>
     </row>
-    <row r="9" spans="2:18" ht="16" thickBot="1">
+    <row r="9" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="105"/>
       <c r="C9" s="29" t="s">
         <v>8</v>
@@ -3793,7 +3690,7 @@
       <c r="Q9" s="116"/>
       <c r="R9" s="30"/>
     </row>
-    <row r="10" spans="2:18" ht="16" thickBot="1">
+    <row r="10" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="105"/>
       <c r="C10" s="118" t="s">
         <v>1</v>
@@ -3821,10 +3718,10 @@
       <c r="P10" s="107"/>
       <c r="Q10" s="107"/>
       <c r="R10" s="109" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="16" thickBot="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="105"/>
       <c r="C11" s="122" t="s">
         <v>6</v>
@@ -3853,10 +3750,10 @@
       <c r="Q11" s="107"/>
       <c r="R11" s="109"/>
     </row>
-    <row r="12" spans="2:18" ht="16" thickBot="1">
+    <row r="12" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="105"/>
       <c r="C12" s="110" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" s="124"/>
       <c r="E12" s="124"/>
@@ -3881,10 +3778,10 @@
       </c>
       <c r="Q12" s="116"/>
       <c r="R12" s="128" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="105"/>
       <c r="C13" s="129"/>
       <c r="D13" s="129"/>
@@ -3905,10 +3802,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="16" thickBot="1">
+    <row r="14" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="105"/>
       <c r="C14" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -3926,10 +3823,10 @@
       <c r="Q14" s="116"/>
       <c r="R14" s="109"/>
     </row>
-    <row r="15" spans="2:18" ht="16" thickBot="1">
+    <row r="15" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="105"/>
       <c r="C15" s="110" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -3951,10 +3848,10 @@
       <c r="P15" s="116"/>
       <c r="Q15" s="116"/>
       <c r="R15" s="109" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" ht="16" thickBot="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="105"/>
       <c r="C16" s="131" t="s">
         <v>9</v>
@@ -3962,7 +3859,7 @@
       <c r="D16" s="131"/>
       <c r="E16" s="131"/>
       <c r="F16" s="111" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G16" s="112"/>
       <c r="H16" s="130">
@@ -3987,10 +3884,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="16" thickBot="1">
+    <row r="17" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="105"/>
       <c r="C17" s="131" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -4012,13 +3909,13 @@
       <c r="P17" s="120"/>
       <c r="Q17" s="120"/>
       <c r="R17" s="109" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" ht="16" thickBot="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="105"/>
       <c r="C18" s="118" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -4040,18 +3937,18 @@
       <c r="P18" s="120"/>
       <c r="Q18" s="120"/>
       <c r="R18" s="109" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" ht="16" thickBot="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="105"/>
       <c r="C19" s="118" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G19" s="106"/>
       <c r="H19" s="132">
@@ -4070,7 +3967,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="16" thickBot="1">
+    <row r="20" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="105"/>
       <c r="C20" s="118" t="s">
         <v>68</v>
@@ -4096,7 +3993,7 @@
       <c r="Q20" s="120"/>
       <c r="R20" s="30"/>
     </row>
-    <row r="21" spans="2:18" ht="16" thickBot="1">
+    <row r="21" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="105"/>
       <c r="C21" s="118" t="s">
         <v>68</v>
@@ -4122,7 +4019,7 @@
       <c r="Q21" s="120"/>
       <c r="R21" s="109"/>
     </row>
-    <row r="22" spans="2:18" ht="16" thickBot="1">
+    <row r="22" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="105"/>
       <c r="C22" s="118" t="s">
         <v>68</v>
@@ -4147,10 +4044,10 @@
       <c r="Q22" s="120"/>
       <c r="R22" s="109"/>
     </row>
-    <row r="23" spans="2:18" ht="16" thickBot="1">
+    <row r="23" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="105"/>
       <c r="C23" s="118" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D23" s="109"/>
       <c r="E23" s="109"/>
@@ -4172,15 +4069,15 @@
       <c r="Q23" s="116"/>
       <c r="R23" s="109"/>
     </row>
-    <row r="24" spans="2:18" ht="16" thickBot="1">
+    <row r="24" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="105"/>
       <c r="C24" s="118" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D24" s="109"/>
       <c r="E24" s="109"/>
       <c r="F24" s="109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G24" s="117"/>
       <c r="H24" s="136">
@@ -4215,11 +4112,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4234,22 +4126,22 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="48" customWidth="1"/>
-    <col min="2" max="2" width="2.625" style="48" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="48" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="48" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="48" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="48" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="48" customWidth="1"/>
-    <col min="10" max="10" width="31.625" style="49" customWidth="1"/>
-    <col min="11" max="11" width="77.125" style="48" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="48"/>
+    <col min="1" max="1" width="3.7109375" style="48" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="48" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="48" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="48" customWidth="1"/>
+    <col min="10" max="10" width="31.5703125" style="49" customWidth="1"/>
+    <col min="11" max="11" width="77.140625" style="48" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -4261,7 +4153,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="51"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="53"/>
       <c r="C3" s="54" t="s">
         <v>23</v>
@@ -4275,7 +4167,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="53"/>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
@@ -4287,7 +4179,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="53"/>
       <c r="C5" s="58" t="s">
         <v>32</v>
@@ -4303,19 +4195,19 @@
         <v>33</v>
       </c>
       <c r="H5" s="58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I5" s="58" t="s">
         <v>75</v>
       </c>
       <c r="J5" s="59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K5" s="58" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="53"/>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -4327,7 +4219,7 @@
       <c r="J6" s="55"/>
       <c r="K6" s="54"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="53"/>
       <c r="C7" s="65"/>
       <c r="D7" s="60"/>
@@ -4335,7 +4227,7 @@
         <v>122</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G7" s="57" t="s">
         <v>88</v>
@@ -4345,13 +4237,13 @@
       </c>
       <c r="I7" s="57"/>
       <c r="J7" s="57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K7" s="67" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="53"/>
       <c r="C8" s="93" t="s">
         <v>90</v>
@@ -4365,7 +4257,7 @@
       <c r="J8" s="57"/>
       <c r="K8" s="56"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="53"/>
       <c r="C9" s="65"/>
       <c r="D9" s="60"/>
@@ -4377,31 +4269,31 @@
       <c r="J9" s="63"/>
       <c r="K9" s="64"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="53"/>
       <c r="C10" s="95"/>
       <c r="D10" s="95"/>
       <c r="E10" s="60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F10" s="61" t="s">
         <v>87</v>
       </c>
       <c r="G10" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H10" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I10" s="63"/>
       <c r="J10" s="63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K10" s="60" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="53"/>
       <c r="C11" s="93" t="s">
         <v>90</v>
@@ -4415,14 +4307,14 @@
       <c r="J11" s="63"/>
       <c r="K11" s="60"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="53"/>
       <c r="C12" s="96" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="60"/>
       <c r="E12" s="60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F12" s="56"/>
       <c r="G12" s="141">
@@ -4433,13 +4325,13 @@
       </c>
       <c r="I12" s="56"/>
       <c r="J12" s="57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K12" s="64" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="53"/>
       <c r="C13" s="97"/>
       <c r="D13" s="60"/>
@@ -4451,15 +4343,15 @@
       <c r="J13" s="57"/>
       <c r="K13" s="60"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="53"/>
       <c r="C14" s="138"/>
       <c r="D14" s="60"/>
       <c r="E14" s="60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F14" s="56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G14" s="57">
         <v>2012</v>
@@ -4469,13 +4361,13 @@
       </c>
       <c r="I14" s="56"/>
       <c r="J14" s="145" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K14" s="60" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="53"/>
       <c r="C15" s="139" t="s">
         <v>6</v>
@@ -4489,7 +4381,7 @@
       <c r="J15" s="57"/>
       <c r="K15" s="60"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="53"/>
       <c r="C16" s="97"/>
       <c r="D16" s="60"/>
@@ -4501,7 +4393,7 @@
       <c r="J16" s="57"/>
       <c r="K16" s="60"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="53"/>
       <c r="C17" s="60"/>
       <c r="D17" s="60"/>
@@ -4523,7 +4415,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="53"/>
       <c r="C18" s="65" t="s">
         <v>100</v>
@@ -4537,7 +4429,7 @@
       <c r="J18" s="57"/>
       <c r="K18" s="60"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="53"/>
       <c r="C19" s="65" t="s">
         <v>101</v>
@@ -4551,7 +4443,7 @@
       <c r="J19" s="66"/>
       <c r="K19" s="60"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="53"/>
       <c r="C20" s="60"/>
       <c r="D20" s="60"/>
@@ -4563,7 +4455,7 @@
       <c r="J20" s="66"/>
       <c r="K20" s="60"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="53"/>
       <c r="C21" s="60"/>
       <c r="D21" s="60"/>
@@ -4583,7 +4475,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="53"/>
       <c r="C22" s="65" t="s">
         <v>77</v>
@@ -4610,11 +4502,6 @@
   <ignoredErrors>
     <ignoredError sqref="G7:H7 G10:H10 H14 H17" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4626,19 +4513,19 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="101" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="101" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="101"/>
-    <col min="4" max="4" width="12.625" style="101" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="101"/>
-    <col min="6" max="6" width="8.625" style="101" customWidth="1"/>
-    <col min="7" max="16384" width="10.625" style="101"/>
+    <col min="2" max="2" width="5.7109375" style="101" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="101"/>
+    <col min="4" max="4" width="12.5703125" style="101" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="101"/>
+    <col min="6" max="6" width="8.5703125" style="101" customWidth="1"/>
+    <col min="7" max="16384" width="10.7109375" style="101"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="16" thickBot="1"/>
-    <row r="2" spans="2:14" s="21" customFormat="1">
+    <row r="1" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="142"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -4653,13 +4540,13 @@
       <c r="M2" s="16"/>
       <c r="N2" s="143"/>
     </row>
-    <row r="3" spans="2:14" s="21" customFormat="1">
+    <row r="3" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="89"/>
       <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -4672,7 +4559,7 @@
       <c r="M3" s="15"/>
       <c r="N3" s="144"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="105"/>
       <c r="C4" s="117"/>
       <c r="D4" s="117"/>
@@ -4687,7 +4574,7 @@
       <c r="M4" s="117"/>
       <c r="N4" s="108"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="105"/>
       <c r="C5" s="117" t="s">
         <v>122</v>
@@ -4704,10 +4591,10 @@
       <c r="M5" s="117"/>
       <c r="N5" s="108"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="105"/>
       <c r="C6" s="117" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="117"/>
       <c r="E6" s="117"/>
@@ -4721,7 +4608,7 @@
       <c r="M6" s="117"/>
       <c r="N6" s="108"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="105"/>
       <c r="C7" s="117"/>
       <c r="D7" s="117"/>
@@ -4736,7 +4623,7 @@
       <c r="M7" s="117"/>
       <c r="N7" s="108"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="105"/>
       <c r="C8" s="117"/>
       <c r="D8" s="117"/>
@@ -4751,7 +4638,7 @@
       <c r="M8" s="117"/>
       <c r="N8" s="108"/>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="105"/>
       <c r="C9" s="117"/>
       <c r="D9" s="117"/>
@@ -4766,7 +4653,7 @@
       <c r="M9" s="117"/>
       <c r="N9" s="108"/>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="105"/>
       <c r="C10" s="117"/>
       <c r="D10" s="117"/>
@@ -4781,7 +4668,7 @@
       <c r="M10" s="117"/>
       <c r="N10" s="108"/>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="105"/>
       <c r="C11" s="117"/>
       <c r="D11" s="117"/>
@@ -4796,7 +4683,7 @@
       <c r="M11" s="117"/>
       <c r="N11" s="108"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="105"/>
       <c r="C12" s="117"/>
       <c r="D12" s="117"/>
@@ -4811,7 +4698,7 @@
       <c r="M12" s="117"/>
       <c r="N12" s="108"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="105"/>
       <c r="C13" s="117"/>
       <c r="D13" s="117"/>
@@ -4826,15 +4713,15 @@
       <c r="M13" s="117"/>
       <c r="N13" s="108"/>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="105"/>
       <c r="C14" s="117"/>
       <c r="D14" s="117"/>
       <c r="E14" s="117" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="117" t="s">
         <v>132</v>
-      </c>
-      <c r="F14" s="117" t="s">
-        <v>133</v>
       </c>
       <c r="G14" s="117"/>
       <c r="H14" s="117"/>
@@ -4845,7 +4732,7 @@
       <c r="M14" s="117"/>
       <c r="N14" s="108"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="105"/>
       <c r="C15" s="117"/>
       <c r="D15" s="117"/>
@@ -4854,7 +4741,7 @@
         <v>465</v>
       </c>
       <c r="F15" s="117" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G15" s="117"/>
       <c r="H15" s="117"/>
@@ -4865,7 +4752,7 @@
       <c r="M15" s="117"/>
       <c r="N15" s="108"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="105"/>
       <c r="C16" s="117"/>
       <c r="D16" s="117"/>
@@ -4873,7 +4760,7 @@
         <v>348.17</v>
       </c>
       <c r="F16" s="117" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G16" s="117"/>
       <c r="H16" s="117"/>
@@ -4884,7 +4771,7 @@
       <c r="M16" s="117"/>
       <c r="N16" s="108"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="105"/>
       <c r="C17" s="117"/>
       <c r="D17" s="117"/>
@@ -4899,7 +4786,7 @@
       <c r="M17" s="117"/>
       <c r="N17" s="108"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="105"/>
       <c r="C18" s="117"/>
       <c r="D18" s="117"/>
@@ -4914,7 +4801,7 @@
       <c r="M18" s="117"/>
       <c r="N18" s="108"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="105"/>
       <c r="C19" s="117"/>
       <c r="D19" s="117"/>
@@ -4929,7 +4816,7 @@
       <c r="M19" s="117"/>
       <c r="N19" s="108"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="105"/>
       <c r="C20" s="117"/>
       <c r="D20" s="117"/>
@@ -4944,7 +4831,7 @@
       <c r="M20" s="117"/>
       <c r="N20" s="108"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="105"/>
       <c r="C21" s="117"/>
       <c r="D21" s="117"/>
@@ -4959,7 +4846,7 @@
       <c r="M21" s="117"/>
       <c r="N21" s="108"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="105"/>
       <c r="C22" s="117"/>
       <c r="D22" s="117"/>
@@ -4974,7 +4861,7 @@
       <c r="M22" s="117"/>
       <c r="N22" s="108"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="105"/>
       <c r="C23" s="117"/>
       <c r="D23" s="117"/>
@@ -4989,7 +4876,7 @@
       <c r="M23" s="117"/>
       <c r="N23" s="108"/>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="105"/>
       <c r="C24" s="117"/>
       <c r="D24" s="117"/>
@@ -5004,10 +4891,10 @@
       <c r="M24" s="117"/>
       <c r="N24" s="108"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="105"/>
       <c r="C25" s="117" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D25" s="117"/>
       <c r="E25" s="117"/>
@@ -5021,10 +4908,10 @@
       <c r="M25" s="117"/>
       <c r="N25" s="108"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="105"/>
       <c r="C26" s="117" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D26" s="117"/>
       <c r="E26" s="117"/>
@@ -5038,7 +4925,7 @@
       <c r="M26" s="117"/>
       <c r="N26" s="108"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="105"/>
       <c r="C27" s="117"/>
       <c r="D27" s="117"/>
@@ -5053,15 +4940,15 @@
       <c r="M27" s="117"/>
       <c r="N27" s="108"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="105"/>
       <c r="C28" s="117"/>
       <c r="D28" s="117"/>
       <c r="E28" s="117" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F28" s="117" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G28" s="117"/>
       <c r="H28" s="117"/>
@@ -5072,7 +4959,7 @@
       <c r="M28" s="117"/>
       <c r="N28" s="108"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="105"/>
       <c r="C29" s="117"/>
       <c r="D29" s="117"/>
@@ -5080,7 +4967,7 @@
         <v>450</v>
       </c>
       <c r="F29" s="117" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G29" s="117"/>
       <c r="H29" s="117"/>
@@ -5091,7 +4978,7 @@
       <c r="M29" s="117"/>
       <c r="N29" s="108"/>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="105"/>
       <c r="C30" s="117"/>
       <c r="D30" s="117"/>
@@ -5099,7 +4986,7 @@
         <v>349.6</v>
       </c>
       <c r="F30" s="117" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G30" s="117"/>
       <c r="H30" s="117"/>
@@ -5110,7 +4997,7 @@
       <c r="M30" s="117"/>
       <c r="N30" s="108"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="105"/>
       <c r="C31" s="117"/>
       <c r="D31" s="117"/>
@@ -5125,7 +5012,7 @@
       <c r="M31" s="117"/>
       <c r="N31" s="108"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="105"/>
       <c r="C32" s="117"/>
       <c r="D32" s="117"/>
@@ -5140,7 +5027,7 @@
       <c r="M32" s="117"/>
       <c r="N32" s="108"/>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="105"/>
       <c r="C33" s="117"/>
       <c r="D33" s="117"/>
@@ -5155,7 +5042,7 @@
       <c r="M33" s="117"/>
       <c r="N33" s="108"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="105"/>
       <c r="C34" s="117"/>
       <c r="D34" s="117"/>
@@ -5170,7 +5057,7 @@
       <c r="M34" s="117"/>
       <c r="N34" s="108"/>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="105"/>
       <c r="C35" s="117"/>
       <c r="D35" s="117"/>
@@ -5185,7 +5072,7 @@
       <c r="M35" s="117"/>
       <c r="N35" s="108"/>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="105"/>
       <c r="C36" s="117"/>
       <c r="D36" s="117"/>
@@ -5200,7 +5087,7 @@
       <c r="M36" s="117"/>
       <c r="N36" s="108"/>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="105"/>
       <c r="C37" s="117"/>
       <c r="D37" s="117"/>
@@ -5215,10 +5102,10 @@
       <c r="M37" s="117"/>
       <c r="N37" s="108"/>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="105"/>
       <c r="C38" s="117" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D38" s="117"/>
       <c r="E38" s="117"/>
@@ -5232,10 +5119,10 @@
       <c r="M38" s="117"/>
       <c r="N38" s="108"/>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="105"/>
       <c r="C39" s="117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D39" s="117"/>
       <c r="E39" s="117"/>
@@ -5249,7 +5136,7 @@
       <c r="M39" s="117"/>
       <c r="N39" s="108"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="105"/>
       <c r="C40" s="117"/>
       <c r="D40" s="117"/>
@@ -5264,7 +5151,7 @@
       <c r="M40" s="117"/>
       <c r="N40" s="108"/>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="105"/>
       <c r="C41" s="117"/>
       <c r="D41" s="117"/>
@@ -5279,7 +5166,7 @@
       <c r="M41" s="117"/>
       <c r="N41" s="108"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="105"/>
       <c r="C42" s="117"/>
       <c r="D42" s="117"/>
@@ -5294,7 +5181,7 @@
       <c r="M42" s="117"/>
       <c r="N42" s="108"/>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="105"/>
       <c r="C43" s="117"/>
       <c r="D43" s="117"/>
@@ -5309,7 +5196,7 @@
       <c r="M43" s="117"/>
       <c r="N43" s="108"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="105"/>
       <c r="C44" s="117"/>
       <c r="D44" s="117"/>
@@ -5324,7 +5211,7 @@
       <c r="M44" s="117"/>
       <c r="N44" s="108"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="105"/>
       <c r="C45" s="117"/>
       <c r="D45" s="117"/>
@@ -5339,7 +5226,7 @@
       <c r="M45" s="117"/>
       <c r="N45" s="108"/>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="105"/>
       <c r="C46" s="117"/>
       <c r="D46" s="117"/>
@@ -5354,7 +5241,7 @@
       <c r="M46" s="117"/>
       <c r="N46" s="108"/>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="105"/>
       <c r="C47" s="117"/>
       <c r="D47" s="117"/>
@@ -5369,7 +5256,7 @@
       <c r="M47" s="117"/>
       <c r="N47" s="108"/>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="105"/>
       <c r="C48" s="117"/>
       <c r="D48" s="117"/>
@@ -5384,7 +5271,7 @@
       <c r="M48" s="117"/>
       <c r="N48" s="108"/>
     </row>
-    <row r="49" spans="2:14">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="105"/>
       <c r="C49" s="117"/>
       <c r="D49" s="117"/>
@@ -5399,7 +5286,7 @@
       <c r="M49" s="117"/>
       <c r="N49" s="108"/>
     </row>
-    <row r="50" spans="2:14">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="105"/>
       <c r="C50" s="117"/>
       <c r="D50" s="117"/>
@@ -5414,7 +5301,7 @@
       <c r="M50" s="117"/>
       <c r="N50" s="108"/>
     </row>
-    <row r="51" spans="2:14">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="105"/>
       <c r="C51" s="117"/>
       <c r="D51" s="117"/>
@@ -5422,7 +5309,7 @@
         <v>4</v>
       </c>
       <c r="F51" s="117" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G51" s="117"/>
       <c r="H51" s="117"/>
@@ -5433,7 +5320,7 @@
       <c r="M51" s="117"/>
       <c r="N51" s="108"/>
     </row>
-    <row r="52" spans="2:14">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="105"/>
       <c r="C52" s="117"/>
       <c r="D52" s="117"/>
@@ -5448,7 +5335,7 @@
       <c r="M52" s="117"/>
       <c r="N52" s="108"/>
     </row>
-    <row r="53" spans="2:14">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="105"/>
       <c r="C53" s="117"/>
       <c r="D53" s="117"/>
@@ -5463,10 +5350,10 @@
       <c r="M53" s="117"/>
       <c r="N53" s="108"/>
     </row>
-    <row r="54" spans="2:14">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="105"/>
       <c r="C54" s="117" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D54" s="117"/>
       <c r="E54" s="117"/>
@@ -5480,10 +5367,10 @@
       <c r="M54" s="117"/>
       <c r="N54" s="108"/>
     </row>
-    <row r="55" spans="2:14">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="105"/>
       <c r="C55" s="117" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D55" s="117"/>
       <c r="E55" s="117"/>
@@ -5497,7 +5384,7 @@
       <c r="M55" s="117"/>
       <c r="N55" s="108"/>
     </row>
-    <row r="56" spans="2:14">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" s="105"/>
       <c r="C56" s="117"/>
       <c r="D56" s="117"/>
@@ -5512,7 +5399,7 @@
       <c r="M56" s="117"/>
       <c r="N56" s="108"/>
     </row>
-    <row r="57" spans="2:14">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B57" s="105"/>
       <c r="C57" s="117"/>
       <c r="D57" s="117"/>
@@ -5527,7 +5414,7 @@
       <c r="M57" s="117"/>
       <c r="N57" s="108"/>
     </row>
-    <row r="58" spans="2:14">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" s="105"/>
       <c r="C58" s="117"/>
       <c r="D58" s="117"/>
@@ -5542,7 +5429,7 @@
       <c r="M58" s="117"/>
       <c r="N58" s="108"/>
     </row>
-    <row r="59" spans="2:14">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" s="105"/>
       <c r="C59" s="117"/>
       <c r="D59" s="117"/>
@@ -5557,17 +5444,17 @@
       <c r="M59" s="117"/>
       <c r="N59" s="108"/>
     </row>
-    <row r="60" spans="2:14">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="105"/>
       <c r="C60" s="117"/>
       <c r="D60" s="117" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E60" s="117">
         <v>40</v>
       </c>
       <c r="F60" s="117" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G60" s="117"/>
       <c r="H60" s="117"/>
@@ -5578,7 +5465,7 @@
       <c r="M60" s="117"/>
       <c r="N60" s="108"/>
     </row>
-    <row r="61" spans="2:14">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" s="105"/>
       <c r="C61" s="117"/>
       <c r="D61" s="117"/>
@@ -5593,7 +5480,7 @@
       <c r="M61" s="117"/>
       <c r="N61" s="108"/>
     </row>
-    <row r="62" spans="2:14">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" s="105"/>
       <c r="C62" s="117"/>
       <c r="D62" s="117"/>
@@ -5608,7 +5495,7 @@
       <c r="M62" s="117"/>
       <c r="N62" s="108"/>
     </row>
-    <row r="63" spans="2:14">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="105"/>
       <c r="C63" s="117"/>
       <c r="D63" s="117"/>
@@ -5623,7 +5510,7 @@
       <c r="M63" s="117"/>
       <c r="N63" s="108"/>
     </row>
-    <row r="64" spans="2:14">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="105"/>
       <c r="C64" s="117"/>
       <c r="D64" s="117"/>
@@ -5638,7 +5525,7 @@
       <c r="M64" s="117"/>
       <c r="N64" s="108"/>
     </row>
-    <row r="65" spans="2:14">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B65" s="105"/>
       <c r="C65" s="117"/>
       <c r="D65" s="117"/>
@@ -5653,7 +5540,7 @@
       <c r="M65" s="117"/>
       <c r="N65" s="108"/>
     </row>
-    <row r="66" spans="2:14">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B66" s="105"/>
       <c r="C66" s="117"/>
       <c r="D66" s="117"/>
@@ -5668,7 +5555,7 @@
       <c r="M66" s="117"/>
       <c r="N66" s="108"/>
     </row>
-    <row r="67" spans="2:14">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B67" s="105"/>
       <c r="C67" s="117"/>
       <c r="D67" s="117"/>
@@ -5683,7 +5570,7 @@
       <c r="M67" s="117"/>
       <c r="N67" s="108"/>
     </row>
-    <row r="68" spans="2:14">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B68" s="105"/>
       <c r="C68" s="117"/>
       <c r="D68" s="117"/>
@@ -5698,7 +5585,7 @@
       <c r="M68" s="117"/>
       <c r="N68" s="108"/>
     </row>
-    <row r="69" spans="2:14">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B69" s="105"/>
       <c r="C69" s="117"/>
       <c r="D69" s="117"/>
@@ -5713,7 +5600,7 @@
       <c r="M69" s="117"/>
       <c r="N69" s="108"/>
     </row>
-    <row r="70" spans="2:14">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B70" s="105"/>
       <c r="C70" s="117"/>
       <c r="D70" s="117"/>
@@ -5728,7 +5615,7 @@
       <c r="M70" s="117"/>
       <c r="N70" s="108"/>
     </row>
-    <row r="71" spans="2:14">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B71" s="105"/>
       <c r="C71" s="117"/>
       <c r="D71" s="117"/>
@@ -5743,7 +5630,7 @@
       <c r="M71" s="117"/>
       <c r="N71" s="108"/>
     </row>
-    <row r="72" spans="2:14">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B72" s="105"/>
       <c r="C72" s="117"/>
       <c r="D72" s="117"/>
@@ -5758,7 +5645,7 @@
       <c r="M72" s="117"/>
       <c r="N72" s="108"/>
     </row>
-    <row r="73" spans="2:14">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B73" s="105"/>
       <c r="C73" s="117"/>
       <c r="D73" s="117"/>
@@ -5777,10 +5664,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_chp_ultra_supercritical_cofiring_coal.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_chp_ultra_supercritical_cofiring_coal.central_producer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70917F54-912A-6B49-B425-21107A34B2EA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D33586-941D-FE45-A2F7-A80B4C7FDCB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="460" windowWidth="25600" windowHeight="15960" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="161">
   <si>
     <t>Source</t>
   </si>
@@ -563,6 +569,9 @@
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1286,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1551,6 +1560,7 @@
     <xf numFmtId="0" fontId="21" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="234">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2424,12 +2434,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="24" customFormat="1">
@@ -2603,23 +2613,23 @@
   </sheetPr>
   <dimension ref="B1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="47.6640625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="34"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="47.7109375" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -3105,15 +3115,15 @@
         <v>3</v>
       </c>
       <c r="E30" s="44">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33" t="s">
         <v>24</v>
       </c>
       <c r="H30" s="33"/>
-      <c r="I30" s="31" t="s">
-        <v>58</v>
+      <c r="I30" s="153" t="s">
+        <v>160</v>
       </c>
       <c r="J30" s="90"/>
     </row>
@@ -3378,27 +3388,27 @@
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4" style="46" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="46" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="46" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="46" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="2.83203125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="46" customWidth="1"/>
-    <col min="9" max="9" width="2.5" style="46" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="46" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="46" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="46" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" style="46" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="46" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="46" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="67" customWidth="1"/>
     <col min="11" max="11" width="2" style="67" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="67" customWidth="1"/>
-    <col min="13" max="13" width="2.1640625" style="67" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="67" customWidth="1"/>
-    <col min="15" max="15" width="2.33203125" style="46" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="67" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" style="67" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="67" customWidth="1"/>
+    <col min="15" max="15" width="2.28515625" style="46" customWidth="1"/>
     <col min="16" max="16" width="10" style="67" customWidth="1"/>
-    <col min="17" max="17" width="2.5" style="67" customWidth="1"/>
-    <col min="18" max="18" width="81.6640625" style="46" customWidth="1"/>
-    <col min="19" max="16384" width="10.6640625" style="46"/>
+    <col min="17" max="17" width="2.42578125" style="67" customWidth="1"/>
+    <col min="18" max="18" width="81.7109375" style="46" customWidth="1"/>
+    <col min="19" max="16384" width="10.7109375" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="17" thickBot="1"/>
@@ -4017,18 +4027,18 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="47" customWidth="1"/>
-    <col min="2" max="2" width="2.5" style="47" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="47" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="47" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="47" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="47" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="47" customWidth="1"/>
-    <col min="10" max="10" width="31.5" style="48" customWidth="1"/>
-    <col min="11" max="11" width="77.1640625" style="47" customWidth="1"/>
-    <col min="12" max="16384" width="33.1640625" style="47"/>
+    <col min="1" max="1" width="3.7109375" style="47" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" style="47" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="47" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="47" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="47" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="47" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="47" customWidth="1"/>
+    <col min="10" max="10" width="31.42578125" style="48" customWidth="1"/>
+    <col min="11" max="11" width="77.140625" style="47" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -4160,7 +4170,7 @@
       <c r="J9" s="62"/>
       <c r="K9" s="63"/>
     </row>
-    <row r="10" spans="2:11" ht="32">
+    <row r="10" spans="2:11" ht="34">
       <c r="B10" s="52"/>
       <c r="C10" s="93"/>
       <c r="D10" s="93"/>
@@ -4404,15 +4414,15 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="6" style="99" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="99" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="99"/>
-    <col min="4" max="4" width="12.5" style="99" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="99"/>
-    <col min="6" max="6" width="8.5" style="99" customWidth="1"/>
-    <col min="7" max="16384" width="10.6640625" style="99"/>
+    <col min="2" max="2" width="5.7109375" style="99" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="99"/>
+    <col min="4" max="4" width="12.42578125" style="99" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="99"/>
+    <col min="6" max="6" width="8.42578125" style="99" customWidth="1"/>
+    <col min="7" max="16384" width="10.7109375" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1"/>

--- a/nodes_source_analyses/energy/energy_chp_ultra_supercritical_cofiring_coal.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_chp_ultra_supercritical_cofiring_coal.central_producer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D33586-941D-FE45-A2F7-A80B4C7FDCB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4203B6EA-F096-FA43-88A7-D2FB48293E0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="152">
   <si>
     <t>Source</t>
   </si>
@@ -172,9 +174,6 @@
     <t>availability</t>
   </si>
   <si>
-    <t>capacity_credit</t>
-  </si>
-  <si>
     <t>free_co2_factor</t>
   </si>
   <si>
@@ -187,12 +186,6 @@
     <t>takes_part_in_ets</t>
   </si>
   <si>
-    <t>part_load_efficiency_penalty</t>
-  </si>
-  <si>
-    <t>part_load_operating_point</t>
-  </si>
-  <si>
     <t>electricity_output_capacity</t>
   </si>
   <si>
@@ -272,24 +265,6 @@
   </si>
   <si>
     <t xml:space="preserve">        Land use</t>
-  </si>
-  <si>
-    <t>hours_prep_nl</t>
-  </si>
-  <si>
-    <t>hours_prod_nl</t>
-  </si>
-  <si>
-    <t>hours_remov_nl</t>
-  </si>
-  <si>
-    <t>hours_place_nl</t>
-  </si>
-  <si>
-    <t>hours_maint_nl</t>
-  </si>
-  <si>
-    <t>input.coal</t>
   </si>
   <si>
     <t>Amer</t>
@@ -583,19 +558,12 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -679,6 +647,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -686,6 +655,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -693,6 +663,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -700,6 +671,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -707,6 +679,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -714,17 +687,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -738,6 +714,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1049,350 +1026,349 @@
   </borders>
   <cellStyleXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1403,35 +1379,35 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1519,48 +1495,48 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="234">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2434,12 +2410,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="18"/>
+    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="24" customFormat="1">
@@ -2465,16 +2441,16 @@
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2498,106 +2474,106 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="70"/>
+      <c r="B9" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="69"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="72"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
-      <c r="B11" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="73" t="s">
-        <v>96</v>
+      <c r="B11" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="71"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="14" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="74" t="s">
-        <v>98</v>
+      <c r="B13" s="70"/>
+      <c r="C13" s="73" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="72" t="s">
-        <v>99</v>
+      <c r="B14" s="70"/>
+      <c r="C14" s="71" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
-      <c r="B16" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="75" t="s">
-        <v>101</v>
+      <c r="B16" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="74" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="76" t="s">
-        <v>102</v>
+      <c r="B17" s="70"/>
+      <c r="C17" s="75" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="77" t="s">
-        <v>103</v>
+      <c r="B18" s="70"/>
+      <c r="C18" s="76" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="78" t="s">
-        <v>104</v>
+      <c r="B19" s="70"/>
+      <c r="C19" s="77" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="80" t="s">
-        <v>105</v>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="81" t="s">
-        <v>106</v>
+      <c r="B21" s="78"/>
+      <c r="C21" s="80" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="82" t="s">
-        <v>107</v>
+      <c r="B22" s="78"/>
+      <c r="C22" s="81" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="79"/>
-      <c r="C23" s="83" t="s">
-        <v>108</v>
+      <c r="B23" s="78"/>
+      <c r="C23" s="82" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2611,25 +2587,25 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K44"/>
+  <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="47.7109375" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="34"/>
+    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="47.6640625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -2640,7 +2616,7 @@
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="144" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C2" s="145"/>
       <c r="D2" s="145"/>
@@ -2687,11 +2663,11 @@
       <c r="J7" s="36"/>
     </row>
     <row r="8" spans="2:11" s="41" customFormat="1" ht="19">
-      <c r="B8" s="87"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="87" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -2705,7 +2681,7 @@
       <c r="I8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="89"/>
+      <c r="J8" s="88"/>
     </row>
     <row r="9" spans="2:11" s="41" customFormat="1" ht="16" customHeight="1">
       <c r="B9" s="20"/>
@@ -2721,7 +2697,7 @@
     <row r="10" spans="2:11" s="41" customFormat="1" ht="17" customHeight="1" thickBot="1">
       <c r="B10" s="20"/>
       <c r="C10" s="14" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="14"/>
@@ -2746,14 +2722,14 @@
       <c r="G11" s="33"/>
       <c r="H11" s="27"/>
       <c r="I11" s="31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J11" s="42"/>
     </row>
     <row r="12" spans="2:11" s="41" customFormat="1" ht="17" customHeight="1" thickBot="1">
       <c r="B12" s="20"/>
       <c r="C12" s="33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>5</v>
@@ -2765,7 +2741,7 @@
       <c r="G12" s="33"/>
       <c r="H12" s="27"/>
       <c r="I12" s="31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J12" s="42"/>
     </row>
@@ -2784,589 +2760,427 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="90"/>
+        <v>55</v>
+      </c>
+      <c r="J13" s="89"/>
       <c r="K13" s="32"/>
     </row>
     <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="90"/>
+        <v>55</v>
+      </c>
+      <c r="J14" s="89"/>
       <c r="K14" s="32"/>
     </row>
     <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="37"/>
       <c r="C15" s="33" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
       <c r="I15" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="90"/>
+        <v>55</v>
+      </c>
+      <c r="J15" s="89"/>
       <c r="K15" s="32"/>
     </row>
     <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="E16" s="44">
-        <v>1</v>
+        <f>'Research data'!H6</f>
+        <v>643.48</v>
       </c>
       <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="G16" s="33" t="s">
+        <v>29</v>
+      </c>
       <c r="H16" s="33"/>
       <c r="I16" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="90"/>
-      <c r="K16" s="32"/>
-    </row>
-    <row r="17" spans="2:11" ht="17" thickBot="1">
+        <v>55</v>
+      </c>
+      <c r="J16" s="89"/>
+    </row>
+    <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="31">
-        <v>0.1</v>
+        <v>100</v>
+      </c>
+      <c r="E17" s="43">
+        <v>260.86956521739103</v>
       </c>
       <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
+      <c r="G17" s="33" t="s">
+        <v>56</v>
+      </c>
       <c r="H17" s="33"/>
       <c r="I17" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="90"/>
-      <c r="K17" s="32"/>
-    </row>
-    <row r="18" spans="2:11" ht="17" thickBot="1">
+        <v>55</v>
+      </c>
+      <c r="J17" s="89"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="37"/>
-      <c r="C18" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="31">
-        <v>0.7</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="90"/>
-      <c r="K18" s="32"/>
-    </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1">
+      <c r="C18" s="32"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="89"/>
+    </row>
+    <row r="19" spans="2:10" ht="17" thickBot="1">
       <c r="B19" s="37"/>
-      <c r="C19" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="44">
-        <f>'Research data'!H6</f>
-        <v>643.48</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="90"/>
-    </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1">
+      <c r="C19" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="84"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="89"/>
+    </row>
+    <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="37"/>
       <c r="C20" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="43">
-        <v>260.86956521739103</v>
+        <v>36</v>
+      </c>
+      <c r="E20" s="44">
+        <f>'Research data'!H15</f>
+        <v>1319134000</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="33" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="H20" s="33"/>
-      <c r="I20" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="90"/>
-    </row>
-    <row r="21" spans="2:11">
+      <c r="I20" s="137" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" s="89"/>
+    </row>
+    <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="37"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="90"/>
-    </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1">
+      <c r="C21" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="44">
+        <v>0</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="89"/>
+    </row>
+    <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="37"/>
-      <c r="C22" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="90"/>
-    </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1">
+      <c r="C22" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="44">
+        <v>0</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="33"/>
+      <c r="I22" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="89"/>
+    </row>
+    <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="37"/>
       <c r="C23" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="44">
-        <f>'Research data'!H15</f>
-        <v>1319134000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H23" s="33"/>
-      <c r="I23" s="138" t="s">
-        <v>148</v>
-      </c>
-      <c r="J23" s="90"/>
-    </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1">
+      <c r="I23" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="89"/>
+    </row>
+    <row r="24" spans="2:10" ht="17" thickBot="1">
       <c r="B24" s="37"/>
       <c r="C24" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="44">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="E24" s="83">
+        <f>'Research data'!H18</f>
+        <v>30887040</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H24" s="33"/>
       <c r="I24" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" s="90"/>
-    </row>
-    <row r="25" spans="2:11" ht="17" thickBot="1">
+        <v>79</v>
+      </c>
+      <c r="J24" s="89"/>
+    </row>
+    <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="37"/>
       <c r="C25" s="33" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="44">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="E25" s="43">
+        <f>'Research data'!H20</f>
+        <v>1544.35</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J25" s="90"/>
-    </row>
-    <row r="26" spans="2:11" ht="17" thickBot="1">
+        <v>80</v>
+      </c>
+      <c r="J25" s="89"/>
+    </row>
+    <row r="26" spans="2:10" ht="17" thickBot="1">
       <c r="B26" s="37"/>
       <c r="C26" s="33" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E26" s="44">
         <v>0</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="33" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="H26" s="33"/>
       <c r="I26" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J26" s="90"/>
-    </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1">
+        <v>55</v>
+      </c>
+      <c r="J26" s="89"/>
+    </row>
+    <row r="27" spans="2:10" ht="17" thickBot="1">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="84">
-        <f>'Research data'!H18</f>
-        <v>30887040</v>
+        <v>3</v>
+      </c>
+      <c r="E27" s="44">
+        <v>0.04</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="H27" s="33"/>
-      <c r="I27" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="J27" s="90"/>
-    </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1">
+      <c r="I27" s="143" t="s">
+        <v>151</v>
+      </c>
+      <c r="J27" s="89"/>
+    </row>
+    <row r="28" spans="2:10" ht="17" thickBot="1">
       <c r="B28" s="37"/>
       <c r="C28" s="33" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="43">
-        <f>'Research data'!H20</f>
-        <v>1544.35</v>
+        <v>12</v>
+      </c>
+      <c r="E28" s="44">
+        <v>1</v>
       </c>
       <c r="F28" s="33"/>
-      <c r="G28" s="33" t="s">
-        <v>62</v>
-      </c>
+      <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="J28" s="90"/>
-    </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1">
+        <v>55</v>
+      </c>
+      <c r="J28" s="89"/>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="37"/>
-      <c r="C29" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="44">
-        <v>0</v>
-      </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J29" s="90"/>
-    </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1">
+      <c r="C29" s="32"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="89"/>
+    </row>
+    <row r="30" spans="2:10" ht="17" thickBot="1">
       <c r="B30" s="37"/>
-      <c r="C30" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="44">
-        <v>0.04</v>
-      </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="153" t="s">
-        <v>160</v>
-      </c>
-      <c r="J30" s="90"/>
-    </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1">
+      <c r="C30" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="84"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="89"/>
+    </row>
+    <row r="31" spans="2:10" ht="17" thickBot="1">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E31" s="44">
-        <v>1</v>
+        <f>'Research data'!H12</f>
+        <v>0.3</v>
       </c>
       <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
+      <c r="G31" s="33" t="s">
+        <v>16</v>
+      </c>
       <c r="H31" s="33"/>
-      <c r="I31" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J31" s="90"/>
-    </row>
-    <row r="32" spans="2:11">
+      <c r="I31" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="89"/>
+    </row>
+    <row r="32" spans="2:10" ht="17" thickBot="1">
       <c r="B32" s="37"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="90"/>
+      <c r="C32" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="44">
+        <f>'Research data'!H10</f>
+        <v>4</v>
+      </c>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="33"/>
+      <c r="I32" s="137" t="s">
+        <v>76</v>
+      </c>
+      <c r="J32" s="89"/>
     </row>
     <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="37"/>
-      <c r="C33" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="85"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="90"/>
+      <c r="C33" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="44">
+        <f>'Research data'!H11</f>
+        <v>40</v>
+      </c>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="33"/>
+      <c r="I33" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="J33" s="89"/>
     </row>
     <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E34" s="44">
-        <f>'Research data'!H12</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F34" s="33"/>
-      <c r="G34" s="33" t="s">
-        <v>16</v>
-      </c>
+      <c r="G34" s="33"/>
       <c r="H34" s="33"/>
-      <c r="I34" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="J34" s="90"/>
-    </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1">
-      <c r="B35" s="37"/>
-      <c r="C35" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="44">
-        <f>'Research data'!H10</f>
-        <v>4</v>
-      </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="33"/>
-      <c r="I35" s="138" t="s">
-        <v>85</v>
-      </c>
-      <c r="J35" s="90"/>
-    </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1">
-      <c r="B36" s="37"/>
-      <c r="C36" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="44">
-        <f>'Research data'!H11</f>
-        <v>40</v>
-      </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="33"/>
-      <c r="I36" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="J36" s="90"/>
-    </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1">
-      <c r="B37" s="37"/>
-      <c r="C37" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="44">
-        <v>0</v>
-      </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="138" t="s">
-        <v>58</v>
-      </c>
-      <c r="J37" s="90"/>
-    </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1">
-      <c r="B38" s="37"/>
-      <c r="C38" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="44">
-        <v>590580</v>
-      </c>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J38" s="90"/>
-    </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1">
-      <c r="B39" s="37"/>
-      <c r="C39" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="44">
-        <v>0</v>
-      </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J39" s="90"/>
-    </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1">
-      <c r="B40" s="37"/>
-      <c r="C40" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="44">
-        <v>7087680</v>
-      </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J40" s="90"/>
-    </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1">
-      <c r="B41" s="37"/>
-      <c r="C41" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="44">
-        <v>1170000</v>
-      </c>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J41" s="90"/>
-    </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1">
-      <c r="B42" s="37"/>
-      <c r="C42" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="44">
-        <v>472500</v>
-      </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J42" s="90"/>
-    </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1">
-      <c r="B43" s="37"/>
-      <c r="C43" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J43" s="90"/>
-    </row>
-    <row r="44" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B44" s="38"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="40"/>
+      <c r="I34" s="137" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" s="89"/>
+    </row>
+    <row r="35" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B35" s="38"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3388,107 +3202,107 @@
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4" style="46" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="46" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="46" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="46" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" style="46" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="46" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" style="46" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="67" customWidth="1"/>
-    <col min="11" max="11" width="2" style="67" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="67" customWidth="1"/>
-    <col min="13" max="13" width="2.140625" style="67" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="67" customWidth="1"/>
-    <col min="15" max="15" width="2.28515625" style="46" customWidth="1"/>
-    <col min="16" max="16" width="10" style="67" customWidth="1"/>
-    <col min="17" max="17" width="2.42578125" style="67" customWidth="1"/>
-    <col min="18" max="18" width="81.7109375" style="46" customWidth="1"/>
-    <col min="19" max="16384" width="10.7109375" style="46"/>
+    <col min="1" max="1" width="4" style="45" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="45" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="45" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="45" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="2.83203125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="45" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="45" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="66" customWidth="1"/>
+    <col min="11" max="11" width="2" style="66" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="66" customWidth="1"/>
+    <col min="13" max="13" width="2.1640625" style="66" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="66" customWidth="1"/>
+    <col min="15" max="15" width="2.33203125" style="45" customWidth="1"/>
+    <col min="16" max="16" width="10" style="66" customWidth="1"/>
+    <col min="17" max="17" width="2.5" style="66" customWidth="1"/>
+    <col min="18" max="18" width="81.6640625" style="45" customWidth="1"/>
+    <col min="19" max="16384" width="10.6640625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="17" thickBot="1"/>
     <row r="2" spans="2:18">
-      <c r="B2" s="100"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="101"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="100"/>
     </row>
     <row r="3" spans="2:18" s="21" customFormat="1">
       <c r="B3" s="20"/>
-      <c r="C3" s="96" t="s">
-        <v>114</v>
+      <c r="C3" s="95" t="s">
+        <v>105</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96" t="s">
-        <v>105</v>
-      </c>
-      <c r="I3" s="96"/>
-      <c r="J3" s="98" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98" t="s">
-        <v>112</v>
-      </c>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98" t="s">
-        <v>126</v>
-      </c>
-      <c r="O3" s="96"/>
-      <c r="P3" s="98" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="96" t="s">
-        <v>118</v>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="95"/>
+      <c r="J3" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="O3" s="95"/>
+      <c r="P3" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="95" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:18">
-      <c r="B4" s="103"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
       <c r="O4" s="10"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
       <c r="R4" s="9"/>
     </row>
     <row r="5" spans="2:18" ht="17" thickBot="1">
-      <c r="B5" s="103"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="29" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3504,74 +3318,74 @@
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
-      <c r="R5" s="107"/>
+      <c r="R5" s="106"/>
     </row>
     <row r="6" spans="2:18" ht="17" thickBot="1">
-      <c r="B6" s="103"/>
-      <c r="C6" s="108" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="109" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" s="110"/>
-      <c r="H6" s="111">
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="108" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="109"/>
+      <c r="H6" s="110">
         <f>ROUND(643.478260869565,2)</f>
         <v>643.48</v>
       </c>
-      <c r="I6" s="110"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="105"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="107"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="113"/>
+      <c r="Q6" s="113"/>
+      <c r="R6" s="106"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="103"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="107"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="113"/>
+      <c r="R7" s="106"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="103"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="107"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="113"/>
+      <c r="R8" s="106"/>
     </row>
     <row r="9" spans="2:18" ht="17" thickBot="1">
-      <c r="B9" s="103"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="29" t="s">
         <v>8</v>
       </c>
@@ -3587,126 +3401,126 @@
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="114"/>
-      <c r="Q9" s="114"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="113"/>
       <c r="R9" s="30"/>
     </row>
     <row r="10" spans="2:18" ht="17" thickBot="1">
-      <c r="B10" s="103"/>
-      <c r="C10" s="116" t="s">
+      <c r="B10" s="102"/>
+      <c r="C10" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="109" t="s">
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="110"/>
-      <c r="H10" s="117">
+      <c r="G10" s="109"/>
+      <c r="H10" s="116">
         <f>ROUND(4,1)</f>
         <v>4</v>
       </c>
-      <c r="I10" s="118"/>
-      <c r="J10" s="128">
+      <c r="I10" s="117"/>
+      <c r="J10" s="127">
         <f>Notes!E51</f>
         <v>4</v>
       </c>
-      <c r="K10" s="118"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="107" t="s">
-        <v>151</v>
+      <c r="K10" s="117"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="106" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="17" thickBot="1">
-      <c r="B11" s="103"/>
-      <c r="C11" s="120" t="s">
+      <c r="B11" s="102"/>
+      <c r="C11" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="109" t="s">
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="110"/>
-      <c r="H11" s="121">
+      <c r="G11" s="109"/>
+      <c r="H11" s="120">
         <f>ROUND(40,0)</f>
         <v>40</v>
       </c>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="135">
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="134">
         <f>Notes!E60</f>
         <v>40</v>
       </c>
-      <c r="O11" s="118"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="107"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
+      <c r="R11" s="106"/>
     </row>
     <row r="12" spans="2:18" ht="17" thickBot="1">
-      <c r="B12" s="103"/>
-      <c r="C12" s="108" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="109" t="s">
+      <c r="B12" s="102"/>
+      <c r="C12" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="110"/>
-      <c r="H12" s="123">
+      <c r="G12" s="109"/>
+      <c r="H12" s="122">
         <f>ROUND(0.3,1)</f>
         <v>0.3</v>
       </c>
-      <c r="I12" s="124"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="124"/>
-      <c r="P12" s="125">
+      <c r="I12" s="123"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="124">
         <f>408*642/1000000</f>
         <v>0.261936</v>
       </c>
-      <c r="Q12" s="114"/>
-      <c r="R12" s="126" t="s">
-        <v>131</v>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="125" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="103"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="114"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113"/>
       <c r="R13" s="30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:18" ht="17" thickBot="1">
-      <c r="B14" s="103"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="13" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -3720,281 +3534,281 @@
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="11"/>
-      <c r="P14" s="114"/>
-      <c r="Q14" s="114"/>
-      <c r="R14" s="107"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="106"/>
     </row>
     <row r="15" spans="2:18" ht="17" thickBot="1">
-      <c r="B15" s="103"/>
-      <c r="C15" s="108" t="s">
-        <v>116</v>
+      <c r="B15" s="102"/>
+      <c r="C15" s="107" t="s">
+        <v>107</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="108" t="s">
+      <c r="F15" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="104"/>
-      <c r="H15" s="128">
+      <c r="G15" s="103"/>
+      <c r="H15" s="127">
         <f>ROUND(H16*H6*1000,2)</f>
         <v>1319134000</v>
       </c>
       <c r="I15" s="12"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
       <c r="O15" s="11"/>
-      <c r="P15" s="114"/>
-      <c r="Q15" s="114"/>
-      <c r="R15" s="107" t="s">
-        <v>139</v>
+      <c r="P15" s="113"/>
+      <c r="Q15" s="113"/>
+      <c r="R15" s="106" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="2:18" ht="17" thickBot="1">
-      <c r="B16" s="103"/>
-      <c r="C16" s="129" t="s">
+      <c r="B16" s="102"/>
+      <c r="C16" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="109" t="s">
-        <v>132</v>
-      </c>
-      <c r="G16" s="110"/>
-      <c r="H16" s="128">
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="109"/>
+      <c r="H16" s="127">
         <v>2050</v>
       </c>
-      <c r="I16" s="118"/>
-      <c r="J16" s="135">
+      <c r="I16" s="117"/>
+      <c r="J16" s="134">
         <f>1700+Notes!E30</f>
         <v>2049.6</v>
       </c>
-      <c r="K16" s="118"/>
-      <c r="L16" s="135">
+      <c r="K16" s="117"/>
+      <c r="L16" s="134">
         <f>1700+Notes!E16</f>
         <v>2048.17</v>
       </c>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="114"/>
-      <c r="Q16" s="114"/>
-      <c r="R16" s="107" t="s">
-        <v>87</v>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="106" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="17" thickBot="1">
-      <c r="B17" s="103"/>
-      <c r="C17" s="129" t="s">
-        <v>133</v>
+      <c r="B17" s="102"/>
+      <c r="C17" s="128" t="s">
+        <v>124</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
-      <c r="F17" s="104" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="104"/>
-      <c r="H17" s="130">
+      <c r="F17" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="103"/>
+      <c r="H17" s="129">
         <f>H18+H21</f>
         <v>37836615</v>
       </c>
       <c r="I17" s="12"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="118"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="107" t="s">
-        <v>140</v>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="117"/>
+      <c r="Q17" s="117"/>
+      <c r="R17" s="106" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="17" thickBot="1">
-      <c r="B18" s="103"/>
-      <c r="C18" s="116" t="s">
-        <v>134</v>
+      <c r="B18" s="102"/>
+      <c r="C18" s="115" t="s">
+        <v>125</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="104" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="104"/>
-      <c r="H18" s="130">
+      <c r="F18" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="103"/>
+      <c r="H18" s="129">
         <f>ROUND(H19*1000*H6,2)</f>
         <v>30887040</v>
       </c>
       <c r="I18" s="12"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="107" t="s">
-        <v>141</v>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="117"/>
+      <c r="Q18" s="117"/>
+      <c r="R18" s="106" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="2:18" ht="17" thickBot="1">
-      <c r="B19" s="103"/>
-      <c r="C19" s="116" t="s">
-        <v>135</v>
+      <c r="B19" s="102"/>
+      <c r="C19" s="115" t="s">
+        <v>126</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="104" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" s="104"/>
-      <c r="H19" s="130">
+      <c r="F19" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="103"/>
+      <c r="H19" s="129">
         <v>48</v>
       </c>
       <c r="I19" s="12"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="118"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="117"/>
       <c r="R19" s="30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="17" thickBot="1">
-      <c r="B20" s="103"/>
-      <c r="C20" s="116" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="109" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="110"/>
-      <c r="H20" s="128">
+      <c r="B20" s="102"/>
+      <c r="C20" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="109"/>
+      <c r="H20" s="127">
         <f>ROUND(H22*H24/H23,2)</f>
         <v>1544.35</v>
       </c>
-      <c r="I20" s="118"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="118"/>
-      <c r="P20" s="118"/>
-      <c r="Q20" s="118"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="117"/>
       <c r="R20" s="30"/>
     </row>
     <row r="21" spans="2:18" ht="17" thickBot="1">
-      <c r="B21" s="103"/>
-      <c r="C21" s="116" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="109" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="110"/>
-      <c r="H21" s="128">
+      <c r="B21" s="102"/>
+      <c r="C21" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="109"/>
+      <c r="H21" s="127">
         <f>H20*H23</f>
         <v>6949575</v>
       </c>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="118"/>
-      <c r="P21" s="118"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="107"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="117"/>
+      <c r="P21" s="117"/>
+      <c r="Q21" s="117"/>
+      <c r="R21" s="106"/>
     </row>
     <row r="22" spans="2:18" ht="17" thickBot="1">
-      <c r="B22" s="103"/>
-      <c r="C22" s="116" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="109" t="s">
+      <c r="B22" s="102"/>
+      <c r="C22" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="110"/>
-      <c r="H22" s="128">
+      <c r="G22" s="109"/>
+      <c r="H22" s="127">
         <v>2.4</v>
       </c>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="118"/>
-      <c r="P22" s="118"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="107"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="117"/>
+      <c r="Q22" s="117"/>
+      <c r="R22" s="106"/>
     </row>
     <row r="23" spans="2:18" ht="17" thickBot="1">
-      <c r="B23" s="103"/>
-      <c r="C23" s="116" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="115"/>
-      <c r="H23" s="134">
+      <c r="B23" s="102"/>
+      <c r="C23" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="114"/>
+      <c r="H23" s="133">
         <v>4500</v>
       </c>
-      <c r="I23" s="115"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="114"/>
-      <c r="R23" s="107"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="113"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="106"/>
     </row>
     <row r="24" spans="2:18" ht="17" thickBot="1">
-      <c r="B24" s="103"/>
-      <c r="C24" s="116" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="G24" s="115"/>
-      <c r="H24" s="134">
+      <c r="B24" s="102"/>
+      <c r="C24" s="115" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="114"/>
+      <c r="H24" s="133">
         <f>H23*H6</f>
         <v>2895660</v>
       </c>
-      <c r="I24" s="115"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="114"/>
-      <c r="Q24" s="114"/>
-      <c r="R24" s="107"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="113"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="106"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="R19:R20">
@@ -4027,370 +3841,370 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="47" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" style="47" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="47" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="47" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="47" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="47" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="47" customWidth="1"/>
-    <col min="10" max="10" width="31.42578125" style="48" customWidth="1"/>
-    <col min="11" max="11" width="77.140625" style="47" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="47"/>
+    <col min="1" max="1" width="3.6640625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="46" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="46" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="31.5" style="47" customWidth="1"/>
+    <col min="11" max="11" width="77.1640625" style="46" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
     <row r="2" spans="2:11">
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="52"/>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="52"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="55"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="52"/>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="I5" s="57" t="s">
+      <c r="H5" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" s="56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="52"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="51"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" s="65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="51"/>
+      <c r="C8" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="91"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="54"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="51"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="62"/>
+    </row>
+    <row r="10" spans="2:11" ht="34">
+      <c r="B10" s="51"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="K10" s="58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="51"/>
+      <c r="C11" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="91"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="58"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="51"/>
+      <c r="C12" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="54"/>
+      <c r="G12" s="138">
+        <v>2010</v>
+      </c>
+      <c r="H12" s="138">
+        <v>2010</v>
+      </c>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="K12" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="51"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="58"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="51"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="55">
+        <v>2012</v>
+      </c>
+      <c r="H14" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="54"/>
+      <c r="J14" s="142" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="51"/>
+      <c r="C15" s="136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="58"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="51"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="58"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="51"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="55">
+        <v>2013</v>
+      </c>
+      <c r="H17" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="51"/>
+      <c r="C18" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="58"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="51"/>
+      <c r="C19" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="58"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="51"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="58"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="51"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="64"/>
+      <c r="K21" s="62" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="51"/>
+      <c r="C22" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="58"/>
+      <c r="E22" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="K5" s="57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="53"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="52"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="K7" s="66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="52"/>
-      <c r="C8" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="92"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="55"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="52"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="63"/>
-    </row>
-    <row r="10" spans="2:11" ht="34">
-      <c r="B10" s="52"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="F10" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="K10" s="59" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="52"/>
-      <c r="C11" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="92"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="59"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="52"/>
-      <c r="C12" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="139">
-        <v>2010</v>
-      </c>
-      <c r="H12" s="139">
-        <v>2010</v>
-      </c>
-      <c r="I12" s="55"/>
-      <c r="J12" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="K12" s="63" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="52"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="59"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="52"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="G14" s="56">
-        <v>2012</v>
-      </c>
-      <c r="H14" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" s="55"/>
-      <c r="J14" s="143" t="s">
-        <v>157</v>
-      </c>
-      <c r="K14" s="59" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="52"/>
-      <c r="C15" s="137" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="59"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="52"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="59"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="52"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="56">
-        <v>2013</v>
-      </c>
-      <c r="H17" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="52"/>
-      <c r="C18" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="59"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="52"/>
-      <c r="C19" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="59"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="52"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="59"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="52"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="J21" s="65"/>
-      <c r="K21" s="63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="52"/>
-      <c r="C22" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="59"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="58"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4414,20 +4228,20 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="6" style="99" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="99" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="99"/>
-    <col min="4" max="4" width="12.42578125" style="99" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="99"/>
-    <col min="6" max="6" width="8.42578125" style="99" customWidth="1"/>
-    <col min="7" max="16384" width="10.7109375" style="99"/>
+    <col min="1" max="1" width="6" style="98" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="98" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="98"/>
+    <col min="4" max="4" width="12.5" style="98" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="98"/>
+    <col min="6" max="6" width="8.5" style="98" customWidth="1"/>
+    <col min="7" max="16384" width="10.6640625" style="98"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1"/>
     <row r="2" spans="2:14" s="21" customFormat="1">
-      <c r="B2" s="140"/>
+      <c r="B2" s="139"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
@@ -4439,15 +4253,15 @@
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
-      <c r="N2" s="141"/>
+      <c r="N2" s="140"/>
     </row>
     <row r="3" spans="2:14" s="21" customFormat="1">
-      <c r="B3" s="87"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -4458,1108 +4272,1108 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
-      <c r="N3" s="142"/>
+      <c r="N3" s="141"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="103"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="106"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="105"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="103"/>
-      <c r="C5" s="115" t="s">
+      <c r="B5" s="102"/>
+      <c r="C5" s="114" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="105"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="102"/>
+      <c r="C6" s="114" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="105"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="102"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="105"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="102"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="105"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="102"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="105"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="102"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="105"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="102"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="105"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="102"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="105"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="102"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="105"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="102"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="106"/>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="103"/>
-      <c r="C6" s="115" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="106"/>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="103"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="106"/>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="103"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="106"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="103"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="106"/>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="103"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="106"/>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="103"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="106"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="103"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="106"/>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="103"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="106"/>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="103"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="115" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="106"/>
+      <c r="F14" s="114" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="105"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="103"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115">
+      <c r="B15" s="102"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114">
         <f>AVERAGE(430,500)</f>
         <v>465</v>
       </c>
-      <c r="F15" s="115" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="106"/>
+      <c r="F15" s="114" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="105"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="103"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115">
+      <c r="B16" s="102"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114">
         <v>348.17</v>
       </c>
-      <c r="F16" s="115" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="106"/>
+      <c r="F16" s="114" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="105"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="103"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="106"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="105"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="103"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="106"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="105"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="103"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="106"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="105"/>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="103"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="106"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="105"/>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="103"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="106"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="105"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="103"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="106"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="105"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="103"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="115"/>
-      <c r="M23" s="115"/>
-      <c r="N23" s="106"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="105"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="103"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="115"/>
-      <c r="N24" s="106"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="105"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="103"/>
-      <c r="C25" s="115" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="115"/>
-      <c r="M25" s="115"/>
-      <c r="N25" s="106"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="114" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="114"/>
+      <c r="N25" s="105"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="103"/>
-      <c r="C26" s="115" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="115"/>
-      <c r="L26" s="115"/>
-      <c r="M26" s="115"/>
-      <c r="N26" s="106"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="114"/>
+      <c r="N26" s="105"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="103"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="115"/>
-      <c r="N27" s="106"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="114"/>
+      <c r="N27" s="105"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="103"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" s="115" t="s">
-        <v>122</v>
-      </c>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="106"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="114" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="114"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="114"/>
+      <c r="N28" s="105"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="103"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115">
+      <c r="B29" s="102"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114">
         <v>450</v>
       </c>
-      <c r="F29" s="115" t="s">
-        <v>122</v>
-      </c>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="115"/>
-      <c r="K29" s="115"/>
-      <c r="L29" s="115"/>
-      <c r="M29" s="115"/>
-      <c r="N29" s="106"/>
+      <c r="F29" s="114" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="114"/>
+      <c r="N29" s="105"/>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="103"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115">
+      <c r="B30" s="102"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114">
         <v>349.6</v>
       </c>
-      <c r="F30" s="115" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="115"/>
-      <c r="M30" s="115"/>
-      <c r="N30" s="106"/>
+      <c r="F30" s="114" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="114"/>
+      <c r="N30" s="105"/>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="103"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="115"/>
-      <c r="K31" s="115"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="115"/>
-      <c r="N31" s="106"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="114"/>
+      <c r="N31" s="105"/>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="103"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="115"/>
-      <c r="L32" s="115"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="106"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="105"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="103"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="115"/>
-      <c r="N33" s="106"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="114"/>
+      <c r="N33" s="105"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="103"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="115"/>
-      <c r="N34" s="106"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="105"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="103"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="115"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="115"/>
-      <c r="N35" s="106"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="114"/>
+      <c r="K35" s="114"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="114"/>
+      <c r="N35" s="105"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="103"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="115"/>
-      <c r="M36" s="115"/>
-      <c r="N36" s="106"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="114"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="114"/>
+      <c r="N36" s="105"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="103"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="115"/>
-      <c r="K37" s="115"/>
-      <c r="L37" s="115"/>
-      <c r="M37" s="115"/>
-      <c r="N37" s="106"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="114"/>
+      <c r="K37" s="114"/>
+      <c r="L37" s="114"/>
+      <c r="M37" s="114"/>
+      <c r="N37" s="105"/>
     </row>
     <row r="38" spans="2:14">
-      <c r="B38" s="103"/>
-      <c r="C38" s="115" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="115"/>
-      <c r="L38" s="115"/>
-      <c r="M38" s="115"/>
-      <c r="N38" s="106"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="114" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="114"/>
+      <c r="N38" s="105"/>
     </row>
     <row r="39" spans="2:14">
-      <c r="B39" s="103"/>
-      <c r="C39" s="115" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="115"/>
-      <c r="K39" s="115"/>
-      <c r="L39" s="115"/>
-      <c r="M39" s="115"/>
-      <c r="N39" s="106"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="114" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="114"/>
+      <c r="K39" s="114"/>
+      <c r="L39" s="114"/>
+      <c r="M39" s="114"/>
+      <c r="N39" s="105"/>
     </row>
     <row r="40" spans="2:14">
-      <c r="B40" s="103"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="115"/>
-      <c r="L40" s="115"/>
-      <c r="M40" s="115"/>
-      <c r="N40" s="106"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="114"/>
+      <c r="L40" s="114"/>
+      <c r="M40" s="114"/>
+      <c r="N40" s="105"/>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="103"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="115"/>
-      <c r="I41" s="115"/>
-      <c r="J41" s="115"/>
-      <c r="K41" s="115"/>
-      <c r="L41" s="115"/>
-      <c r="M41" s="115"/>
-      <c r="N41" s="106"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="105"/>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="103"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="115"/>
-      <c r="J42" s="115"/>
-      <c r="K42" s="115"/>
-      <c r="L42" s="115"/>
-      <c r="M42" s="115"/>
-      <c r="N42" s="106"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="105"/>
     </row>
     <row r="43" spans="2:14">
-      <c r="B43" s="103"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="115"/>
-      <c r="I43" s="115"/>
-      <c r="J43" s="115"/>
-      <c r="K43" s="115"/>
-      <c r="L43" s="115"/>
-      <c r="M43" s="115"/>
-      <c r="N43" s="106"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="105"/>
     </row>
     <row r="44" spans="2:14">
-      <c r="B44" s="103"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="115"/>
-      <c r="J44" s="115"/>
-      <c r="K44" s="115"/>
-      <c r="L44" s="115"/>
-      <c r="M44" s="115"/>
-      <c r="N44" s="106"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="114"/>
+      <c r="M44" s="114"/>
+      <c r="N44" s="105"/>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="103"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="115"/>
-      <c r="J45" s="115"/>
-      <c r="K45" s="115"/>
-      <c r="L45" s="115"/>
-      <c r="M45" s="115"/>
-      <c r="N45" s="106"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="114"/>
+      <c r="N45" s="105"/>
     </row>
     <row r="46" spans="2:14">
-      <c r="B46" s="103"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="115"/>
-      <c r="J46" s="115"/>
-      <c r="K46" s="115"/>
-      <c r="L46" s="115"/>
-      <c r="M46" s="115"/>
-      <c r="N46" s="106"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
+      <c r="J46" s="114"/>
+      <c r="K46" s="114"/>
+      <c r="L46" s="114"/>
+      <c r="M46" s="114"/>
+      <c r="N46" s="105"/>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="103"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="115"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="115"/>
-      <c r="J47" s="115"/>
-      <c r="K47" s="115"/>
-      <c r="L47" s="115"/>
-      <c r="M47" s="115"/>
-      <c r="N47" s="106"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="114"/>
+      <c r="L47" s="114"/>
+      <c r="M47" s="114"/>
+      <c r="N47" s="105"/>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="103"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
-      <c r="G48" s="115"/>
-      <c r="H48" s="115"/>
-      <c r="I48" s="115"/>
-      <c r="J48" s="115"/>
-      <c r="K48" s="115"/>
-      <c r="L48" s="115"/>
-      <c r="M48" s="115"/>
-      <c r="N48" s="106"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="114"/>
+      <c r="G48" s="114"/>
+      <c r="H48" s="114"/>
+      <c r="I48" s="114"/>
+      <c r="J48" s="114"/>
+      <c r="K48" s="114"/>
+      <c r="L48" s="114"/>
+      <c r="M48" s="114"/>
+      <c r="N48" s="105"/>
     </row>
     <row r="49" spans="2:14">
-      <c r="B49" s="103"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="115"/>
-      <c r="G49" s="115"/>
-      <c r="H49" s="115"/>
-      <c r="I49" s="115"/>
-      <c r="J49" s="115"/>
-      <c r="K49" s="115"/>
-      <c r="L49" s="115"/>
-      <c r="M49" s="115"/>
-      <c r="N49" s="106"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="114"/>
+      <c r="K49" s="114"/>
+      <c r="L49" s="114"/>
+      <c r="M49" s="114"/>
+      <c r="N49" s="105"/>
     </row>
     <row r="50" spans="2:14">
-      <c r="B50" s="103"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="115"/>
-      <c r="H50" s="115"/>
-      <c r="I50" s="115"/>
-      <c r="J50" s="115"/>
-      <c r="K50" s="115"/>
-      <c r="L50" s="115"/>
-      <c r="M50" s="115"/>
-      <c r="N50" s="106"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="114"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="114"/>
+      <c r="J50" s="114"/>
+      <c r="K50" s="114"/>
+      <c r="L50" s="114"/>
+      <c r="M50" s="114"/>
+      <c r="N50" s="105"/>
     </row>
     <row r="51" spans="2:14">
-      <c r="B51" s="103"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
-      <c r="E51" s="115">
+      <c r="B51" s="102"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="114">
         <v>4</v>
       </c>
-      <c r="F51" s="115" t="s">
-        <v>129</v>
-      </c>
-      <c r="G51" s="115"/>
-      <c r="H51" s="115"/>
-      <c r="I51" s="115"/>
-      <c r="J51" s="115"/>
-      <c r="K51" s="115"/>
-      <c r="L51" s="115"/>
-      <c r="M51" s="115"/>
-      <c r="N51" s="106"/>
+      <c r="F51" s="114" t="s">
+        <v>120</v>
+      </c>
+      <c r="G51" s="114"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
+      <c r="J51" s="114"/>
+      <c r="K51" s="114"/>
+      <c r="L51" s="114"/>
+      <c r="M51" s="114"/>
+      <c r="N51" s="105"/>
     </row>
     <row r="52" spans="2:14">
-      <c r="B52" s="103"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115"/>
-      <c r="E52" s="115"/>
-      <c r="F52" s="115"/>
-      <c r="G52" s="115"/>
-      <c r="H52" s="115"/>
-      <c r="I52" s="115"/>
-      <c r="J52" s="115"/>
-      <c r="K52" s="115"/>
-      <c r="L52" s="115"/>
-      <c r="M52" s="115"/>
-      <c r="N52" s="106"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="114"/>
+      <c r="G52" s="114"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="114"/>
+      <c r="J52" s="114"/>
+      <c r="K52" s="114"/>
+      <c r="L52" s="114"/>
+      <c r="M52" s="114"/>
+      <c r="N52" s="105"/>
     </row>
     <row r="53" spans="2:14">
-      <c r="B53" s="103"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="115"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="115"/>
-      <c r="G53" s="115"/>
-      <c r="H53" s="115"/>
-      <c r="I53" s="115"/>
-      <c r="J53" s="115"/>
-      <c r="K53" s="115"/>
-      <c r="L53" s="115"/>
-      <c r="M53" s="115"/>
-      <c r="N53" s="106"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="114"/>
+      <c r="G53" s="114"/>
+      <c r="H53" s="114"/>
+      <c r="I53" s="114"/>
+      <c r="J53" s="114"/>
+      <c r="K53" s="114"/>
+      <c r="L53" s="114"/>
+      <c r="M53" s="114"/>
+      <c r="N53" s="105"/>
     </row>
     <row r="54" spans="2:14">
-      <c r="B54" s="103"/>
-      <c r="C54" s="115" t="s">
-        <v>126</v>
-      </c>
-      <c r="D54" s="115"/>
-      <c r="E54" s="115"/>
-      <c r="F54" s="115"/>
-      <c r="G54" s="115"/>
-      <c r="H54" s="115"/>
-      <c r="I54" s="115"/>
-      <c r="J54" s="115"/>
-      <c r="K54" s="115"/>
-      <c r="L54" s="115"/>
-      <c r="M54" s="115"/>
-      <c r="N54" s="106"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="114"/>
+      <c r="H54" s="114"/>
+      <c r="I54" s="114"/>
+      <c r="J54" s="114"/>
+      <c r="K54" s="114"/>
+      <c r="L54" s="114"/>
+      <c r="M54" s="114"/>
+      <c r="N54" s="105"/>
     </row>
     <row r="55" spans="2:14">
-      <c r="B55" s="103"/>
-      <c r="C55" s="115" t="s">
-        <v>127</v>
-      </c>
-      <c r="D55" s="115"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="115"/>
-      <c r="G55" s="115"/>
-      <c r="H55" s="115"/>
-      <c r="I55" s="115"/>
-      <c r="J55" s="115"/>
-      <c r="K55" s="115"/>
-      <c r="L55" s="115"/>
-      <c r="M55" s="115"/>
-      <c r="N55" s="106"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="114" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="114"/>
+      <c r="E55" s="114"/>
+      <c r="F55" s="114"/>
+      <c r="G55" s="114"/>
+      <c r="H55" s="114"/>
+      <c r="I55" s="114"/>
+      <c r="J55" s="114"/>
+      <c r="K55" s="114"/>
+      <c r="L55" s="114"/>
+      <c r="M55" s="114"/>
+      <c r="N55" s="105"/>
     </row>
     <row r="56" spans="2:14">
-      <c r="B56" s="103"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="115"/>
-      <c r="E56" s="115"/>
-      <c r="F56" s="115"/>
-      <c r="G56" s="115"/>
-      <c r="H56" s="115"/>
-      <c r="I56" s="115"/>
-      <c r="J56" s="115"/>
-      <c r="K56" s="115"/>
-      <c r="L56" s="115"/>
-      <c r="M56" s="115"/>
-      <c r="N56" s="106"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="114"/>
+      <c r="D56" s="114"/>
+      <c r="E56" s="114"/>
+      <c r="F56" s="114"/>
+      <c r="G56" s="114"/>
+      <c r="H56" s="114"/>
+      <c r="I56" s="114"/>
+      <c r="J56" s="114"/>
+      <c r="K56" s="114"/>
+      <c r="L56" s="114"/>
+      <c r="M56" s="114"/>
+      <c r="N56" s="105"/>
     </row>
     <row r="57" spans="2:14">
-      <c r="B57" s="103"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="115"/>
-      <c r="G57" s="115"/>
-      <c r="H57" s="115"/>
-      <c r="I57" s="115"/>
-      <c r="J57" s="115"/>
-      <c r="K57" s="115"/>
-      <c r="L57" s="115"/>
-      <c r="M57" s="115"/>
-      <c r="N57" s="106"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="114"/>
+      <c r="D57" s="114"/>
+      <c r="E57" s="114"/>
+      <c r="F57" s="114"/>
+      <c r="G57" s="114"/>
+      <c r="H57" s="114"/>
+      <c r="I57" s="114"/>
+      <c r="J57" s="114"/>
+      <c r="K57" s="114"/>
+      <c r="L57" s="114"/>
+      <c r="M57" s="114"/>
+      <c r="N57" s="105"/>
     </row>
     <row r="58" spans="2:14">
-      <c r="B58" s="103"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115"/>
-      <c r="E58" s="115"/>
-      <c r="F58" s="115"/>
-      <c r="G58" s="115"/>
-      <c r="H58" s="115"/>
-      <c r="I58" s="115"/>
-      <c r="J58" s="115"/>
-      <c r="K58" s="115"/>
-      <c r="L58" s="115"/>
-      <c r="M58" s="115"/>
-      <c r="N58" s="106"/>
+      <c r="B58" s="102"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="114"/>
+      <c r="G58" s="114"/>
+      <c r="H58" s="114"/>
+      <c r="I58" s="114"/>
+      <c r="J58" s="114"/>
+      <c r="K58" s="114"/>
+      <c r="L58" s="114"/>
+      <c r="M58" s="114"/>
+      <c r="N58" s="105"/>
     </row>
     <row r="59" spans="2:14">
-      <c r="B59" s="103"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="115"/>
-      <c r="E59" s="115"/>
-      <c r="F59" s="115"/>
-      <c r="G59" s="115"/>
-      <c r="H59" s="115"/>
-      <c r="I59" s="115"/>
-      <c r="J59" s="115"/>
-      <c r="K59" s="115"/>
-      <c r="L59" s="115"/>
-      <c r="M59" s="115"/>
-      <c r="N59" s="106"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="114"/>
+      <c r="F59" s="114"/>
+      <c r="G59" s="114"/>
+      <c r="H59" s="114"/>
+      <c r="I59" s="114"/>
+      <c r="J59" s="114"/>
+      <c r="K59" s="114"/>
+      <c r="L59" s="114"/>
+      <c r="M59" s="114"/>
+      <c r="N59" s="105"/>
     </row>
     <row r="60" spans="2:14">
-      <c r="B60" s="103"/>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115" t="s">
-        <v>128</v>
-      </c>
-      <c r="E60" s="115">
+      <c r="B60" s="102"/>
+      <c r="C60" s="114"/>
+      <c r="D60" s="114" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" s="114">
         <v>40</v>
       </c>
-      <c r="F60" s="115" t="s">
-        <v>129</v>
-      </c>
-      <c r="G60" s="115"/>
-      <c r="H60" s="115"/>
-      <c r="I60" s="115"/>
-      <c r="J60" s="115"/>
-      <c r="K60" s="115"/>
-      <c r="L60" s="115"/>
-      <c r="M60" s="115"/>
-      <c r="N60" s="106"/>
+      <c r="F60" s="114" t="s">
+        <v>120</v>
+      </c>
+      <c r="G60" s="114"/>
+      <c r="H60" s="114"/>
+      <c r="I60" s="114"/>
+      <c r="J60" s="114"/>
+      <c r="K60" s="114"/>
+      <c r="L60" s="114"/>
+      <c r="M60" s="114"/>
+      <c r="N60" s="105"/>
     </row>
     <row r="61" spans="2:14">
-      <c r="B61" s="103"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115"/>
-      <c r="E61" s="115"/>
-      <c r="F61" s="115"/>
-      <c r="G61" s="115"/>
-      <c r="H61" s="115"/>
-      <c r="I61" s="115"/>
-      <c r="J61" s="115"/>
-      <c r="K61" s="115"/>
-      <c r="L61" s="115"/>
-      <c r="M61" s="115"/>
-      <c r="N61" s="106"/>
+      <c r="B61" s="102"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="114"/>
+      <c r="F61" s="114"/>
+      <c r="G61" s="114"/>
+      <c r="H61" s="114"/>
+      <c r="I61" s="114"/>
+      <c r="J61" s="114"/>
+      <c r="K61" s="114"/>
+      <c r="L61" s="114"/>
+      <c r="M61" s="114"/>
+      <c r="N61" s="105"/>
     </row>
     <row r="62" spans="2:14">
-      <c r="B62" s="103"/>
-      <c r="C62" s="115"/>
-      <c r="D62" s="115"/>
-      <c r="E62" s="115"/>
-      <c r="F62" s="115"/>
-      <c r="G62" s="115"/>
-      <c r="H62" s="115"/>
-      <c r="I62" s="115"/>
-      <c r="J62" s="115"/>
-      <c r="K62" s="115"/>
-      <c r="L62" s="115"/>
-      <c r="M62" s="115"/>
-      <c r="N62" s="106"/>
+      <c r="B62" s="102"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="114"/>
+      <c r="E62" s="114"/>
+      <c r="F62" s="114"/>
+      <c r="G62" s="114"/>
+      <c r="H62" s="114"/>
+      <c r="I62" s="114"/>
+      <c r="J62" s="114"/>
+      <c r="K62" s="114"/>
+      <c r="L62" s="114"/>
+      <c r="M62" s="114"/>
+      <c r="N62" s="105"/>
     </row>
     <row r="63" spans="2:14">
-      <c r="B63" s="103"/>
-      <c r="C63" s="115"/>
-      <c r="D63" s="115"/>
-      <c r="E63" s="115"/>
-      <c r="F63" s="115"/>
-      <c r="G63" s="115"/>
-      <c r="H63" s="115"/>
-      <c r="I63" s="115"/>
-      <c r="J63" s="115"/>
-      <c r="K63" s="115"/>
-      <c r="L63" s="115"/>
-      <c r="M63" s="115"/>
-      <c r="N63" s="106"/>
+      <c r="B63" s="102"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
+      <c r="G63" s="114"/>
+      <c r="H63" s="114"/>
+      <c r="I63" s="114"/>
+      <c r="J63" s="114"/>
+      <c r="K63" s="114"/>
+      <c r="L63" s="114"/>
+      <c r="M63" s="114"/>
+      <c r="N63" s="105"/>
     </row>
     <row r="64" spans="2:14">
-      <c r="B64" s="103"/>
-      <c r="C64" s="115"/>
-      <c r="D64" s="115"/>
-      <c r="E64" s="115"/>
-      <c r="F64" s="115"/>
-      <c r="G64" s="115"/>
-      <c r="H64" s="115"/>
-      <c r="I64" s="115"/>
-      <c r="J64" s="115"/>
-      <c r="K64" s="115"/>
-      <c r="L64" s="115"/>
-      <c r="M64" s="115"/>
-      <c r="N64" s="106"/>
+      <c r="B64" s="102"/>
+      <c r="C64" s="114"/>
+      <c r="D64" s="114"/>
+      <c r="E64" s="114"/>
+      <c r="F64" s="114"/>
+      <c r="G64" s="114"/>
+      <c r="H64" s="114"/>
+      <c r="I64" s="114"/>
+      <c r="J64" s="114"/>
+      <c r="K64" s="114"/>
+      <c r="L64" s="114"/>
+      <c r="M64" s="114"/>
+      <c r="N64" s="105"/>
     </row>
     <row r="65" spans="2:14">
-      <c r="B65" s="103"/>
-      <c r="C65" s="115"/>
-      <c r="D65" s="115"/>
-      <c r="E65" s="115"/>
-      <c r="F65" s="115"/>
-      <c r="G65" s="115"/>
-      <c r="H65" s="115"/>
-      <c r="I65" s="115"/>
-      <c r="J65" s="115"/>
-      <c r="K65" s="115"/>
-      <c r="L65" s="115"/>
-      <c r="M65" s="115"/>
-      <c r="N65" s="106"/>
+      <c r="B65" s="102"/>
+      <c r="C65" s="114"/>
+      <c r="D65" s="114"/>
+      <c r="E65" s="114"/>
+      <c r="F65" s="114"/>
+      <c r="G65" s="114"/>
+      <c r="H65" s="114"/>
+      <c r="I65" s="114"/>
+      <c r="J65" s="114"/>
+      <c r="K65" s="114"/>
+      <c r="L65" s="114"/>
+      <c r="M65" s="114"/>
+      <c r="N65" s="105"/>
     </row>
     <row r="66" spans="2:14">
-      <c r="B66" s="103"/>
-      <c r="C66" s="115"/>
-      <c r="D66" s="115"/>
-      <c r="E66" s="115"/>
-      <c r="F66" s="115"/>
-      <c r="G66" s="115"/>
-      <c r="H66" s="115"/>
-      <c r="I66" s="115"/>
-      <c r="J66" s="115"/>
-      <c r="K66" s="115"/>
-      <c r="L66" s="115"/>
-      <c r="M66" s="115"/>
-      <c r="N66" s="106"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="114"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="114"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="114"/>
+      <c r="H66" s="114"/>
+      <c r="I66" s="114"/>
+      <c r="J66" s="114"/>
+      <c r="K66" s="114"/>
+      <c r="L66" s="114"/>
+      <c r="M66" s="114"/>
+      <c r="N66" s="105"/>
     </row>
     <row r="67" spans="2:14">
-      <c r="B67" s="103"/>
-      <c r="C67" s="115"/>
-      <c r="D67" s="115"/>
-      <c r="E67" s="115"/>
-      <c r="F67" s="115"/>
-      <c r="G67" s="115"/>
-      <c r="H67" s="115"/>
-      <c r="I67" s="115"/>
-      <c r="J67" s="115"/>
-      <c r="K67" s="115"/>
-      <c r="L67" s="115"/>
-      <c r="M67" s="115"/>
-      <c r="N67" s="106"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="114"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="114"/>
+      <c r="J67" s="114"/>
+      <c r="K67" s="114"/>
+      <c r="L67" s="114"/>
+      <c r="M67" s="114"/>
+      <c r="N67" s="105"/>
     </row>
     <row r="68" spans="2:14">
-      <c r="B68" s="103"/>
-      <c r="C68" s="115"/>
-      <c r="D68" s="115"/>
-      <c r="E68" s="115"/>
-      <c r="F68" s="115"/>
-      <c r="G68" s="115"/>
-      <c r="H68" s="115"/>
-      <c r="I68" s="115"/>
-      <c r="J68" s="115"/>
-      <c r="K68" s="115"/>
-      <c r="L68" s="115"/>
-      <c r="M68" s="115"/>
-      <c r="N68" s="106"/>
+      <c r="B68" s="102"/>
+      <c r="C68" s="114"/>
+      <c r="D68" s="114"/>
+      <c r="E68" s="114"/>
+      <c r="F68" s="114"/>
+      <c r="G68" s="114"/>
+      <c r="H68" s="114"/>
+      <c r="I68" s="114"/>
+      <c r="J68" s="114"/>
+      <c r="K68" s="114"/>
+      <c r="L68" s="114"/>
+      <c r="M68" s="114"/>
+      <c r="N68" s="105"/>
     </row>
     <row r="69" spans="2:14">
-      <c r="B69" s="103"/>
-      <c r="C69" s="115"/>
-      <c r="D69" s="115"/>
-      <c r="E69" s="115"/>
-      <c r="F69" s="115"/>
-      <c r="G69" s="115"/>
-      <c r="H69" s="115"/>
-      <c r="I69" s="115"/>
-      <c r="J69" s="115"/>
-      <c r="K69" s="115"/>
-      <c r="L69" s="115"/>
-      <c r="M69" s="115"/>
-      <c r="N69" s="106"/>
+      <c r="B69" s="102"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="114"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="114"/>
+      <c r="L69" s="114"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="105"/>
     </row>
     <row r="70" spans="2:14">
-      <c r="B70" s="103"/>
-      <c r="C70" s="115"/>
-      <c r="D70" s="115"/>
-      <c r="E70" s="115"/>
-      <c r="F70" s="115"/>
-      <c r="G70" s="115"/>
-      <c r="H70" s="115"/>
-      <c r="I70" s="115"/>
-      <c r="J70" s="115"/>
-      <c r="K70" s="115"/>
-      <c r="L70" s="115"/>
-      <c r="M70" s="115"/>
-      <c r="N70" s="106"/>
+      <c r="B70" s="102"/>
+      <c r="C70" s="114"/>
+      <c r="D70" s="114"/>
+      <c r="E70" s="114"/>
+      <c r="F70" s="114"/>
+      <c r="G70" s="114"/>
+      <c r="H70" s="114"/>
+      <c r="I70" s="114"/>
+      <c r="J70" s="114"/>
+      <c r="K70" s="114"/>
+      <c r="L70" s="114"/>
+      <c r="M70" s="114"/>
+      <c r="N70" s="105"/>
     </row>
     <row r="71" spans="2:14">
-      <c r="B71" s="103"/>
-      <c r="C71" s="115"/>
-      <c r="D71" s="115"/>
-      <c r="E71" s="115"/>
-      <c r="F71" s="115"/>
-      <c r="G71" s="115"/>
-      <c r="H71" s="115"/>
-      <c r="I71" s="115"/>
-      <c r="J71" s="115"/>
-      <c r="K71" s="115"/>
-      <c r="L71" s="115"/>
-      <c r="M71" s="115"/>
-      <c r="N71" s="106"/>
+      <c r="B71" s="102"/>
+      <c r="C71" s="114"/>
+      <c r="D71" s="114"/>
+      <c r="E71" s="114"/>
+      <c r="F71" s="114"/>
+      <c r="G71" s="114"/>
+      <c r="H71" s="114"/>
+      <c r="I71" s="114"/>
+      <c r="J71" s="114"/>
+      <c r="K71" s="114"/>
+      <c r="L71" s="114"/>
+      <c r="M71" s="114"/>
+      <c r="N71" s="105"/>
     </row>
     <row r="72" spans="2:14">
-      <c r="B72" s="103"/>
-      <c r="C72" s="115"/>
-      <c r="D72" s="115"/>
-      <c r="E72" s="115"/>
-      <c r="F72" s="115"/>
-      <c r="G72" s="115"/>
-      <c r="H72" s="115"/>
-      <c r="I72" s="115"/>
-      <c r="J72" s="115"/>
-      <c r="K72" s="115"/>
-      <c r="L72" s="115"/>
-      <c r="M72" s="115"/>
-      <c r="N72" s="106"/>
+      <c r="B72" s="102"/>
+      <c r="C72" s="114"/>
+      <c r="D72" s="114"/>
+      <c r="E72" s="114"/>
+      <c r="F72" s="114"/>
+      <c r="G72" s="114"/>
+      <c r="H72" s="114"/>
+      <c r="I72" s="114"/>
+      <c r="J72" s="114"/>
+      <c r="K72" s="114"/>
+      <c r="L72" s="114"/>
+      <c r="M72" s="114"/>
+      <c r="N72" s="105"/>
     </row>
     <row r="73" spans="2:14">
-      <c r="B73" s="103"/>
-      <c r="C73" s="115"/>
-      <c r="D73" s="115"/>
-      <c r="E73" s="115"/>
-      <c r="F73" s="115"/>
-      <c r="G73" s="115"/>
-      <c r="H73" s="115"/>
-      <c r="I73" s="115"/>
-      <c r="J73" s="115"/>
-      <c r="K73" s="115"/>
-      <c r="L73" s="115"/>
-      <c r="M73" s="115"/>
-      <c r="N73" s="106"/>
+      <c r="B73" s="102"/>
+      <c r="C73" s="114"/>
+      <c r="D73" s="114"/>
+      <c r="E73" s="114"/>
+      <c r="F73" s="114"/>
+      <c r="G73" s="114"/>
+      <c r="H73" s="114"/>
+      <c r="I73" s="114"/>
+      <c r="J73" s="114"/>
+      <c r="K73" s="114"/>
+      <c r="L73" s="114"/>
+      <c r="M73" s="114"/>
+      <c r="N73" s="105"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
